--- a/Scripts/Python Script Versions/Data/newsApiOutput.xlsx
+++ b/Scripts/Python Script Versions/Data/newsApiOutput.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="814" uniqueCount="627">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="789" uniqueCount="609">
   <si>
     <t>index</t>
   </si>
@@ -37,39 +37,6 @@
     <t>content</t>
   </si>
   <si>
-    <t>Kyler Murray chose football right after A's exec Billy Beane said no decision had been made</t>
-  </si>
-  <si>
-    <t>This Quadriga client lost his entire life savings in $560,000 mistake</t>
-  </si>
-  <si>
-    <t>How Bad Is the China Slowdown? U.S. Companies Offer Some Answers - The Wall Street Journal</t>
-  </si>
-  <si>
-    <t>National Enquirer Publisher Asked Justice Department for Advice on Saudi Connection - The Wall Street Journal</t>
-  </si>
-  <si>
-    <t>'This is a union town' — NYC councilman says Amazon's HQ2 is 'antithetical' to our values</t>
-  </si>
-  <si>
-    <t>Staples Canada jumps on the co-working trend, heralding a new era of shared workspaces</t>
-  </si>
-  <si>
-    <t>Tesla's biggest non-Musk shareholder just cut its stake in half — but the stock is still soaring (TSLA)</t>
-  </si>
-  <si>
-    <t>How the sports world reacted to Kyler Murray choosing the NFL over MLB</t>
-  </si>
-  <si>
-    <t>One of Snap's former top execs is going to take on Amazon with his new start-up</t>
-  </si>
-  <si>
-    <t>Apple's new MacBook Air is up to $150 off at Best Buy right now — and it's a great deal at this price</t>
-  </si>
-  <si>
-    <t>‘Flesh and blood robots for Amazon’: They raid clearance aisles and resell it all online for a profit</t>
-  </si>
-  <si>
     <t>Under Armour Analysts Eye Margins for Proof Efforts Paying Off</t>
   </si>
   <si>
@@ -226,12 +193,12 @@
     <t>How Trump Has Hurt the Gun Lobby</t>
   </si>
   <si>
+    <t>Amazon bolsters smart-home offerings with Eero acquisition</t>
+  </si>
+  <si>
     <t>The Wall Street Journal: Amazon bolsters smart-home offerings with Eero acquisition</t>
   </si>
   <si>
-    <t>Amazon bolsters smart-home offerings with Eero acquisition</t>
-  </si>
-  <si>
     <t>Bezos' girlfriend shared his texts, photos with friends before Enquirer leak</t>
   </si>
   <si>
@@ -481,37 +448,25 @@
     <t>Seattle Area Home Where Jeff Bezos Started Amazon Can Be Yours</t>
   </si>
   <si>
-    <t>Interesting timing.</t>
-  </si>
-  <si>
-    <t>'I wasn't using it for trading — I just wanted to move my money over to my Canadian bank account'</t>
-  </si>
-  <si>
-    <t>How Bad Is the China Slowdown? U.S. Companies Offer Some Answers The Wall Street Journal Fourth-quarter results from U.S. companies indicate that slowing growth in China is modest, but broad. Retailers and other companies catering to Chinese... View full cove…</t>
-  </si>
-  <si>
-    <t>National Enquirer Publisher Asked Justice Department for Advice on Saudi Connection The Wall Street Journal Investigators zero in on Amazon CEO leaker as National Enquirer denies extortion ABC News National Enquirer did blackmail Jeff Bezos: Napolitano Fox Bu…</t>
-  </si>
-  <si>
-    <t>New York City Councilman Jimmy Van Bramer also says he is against Amazon's plans for HQ2 in Queens because of the company's stances on immigration control.</t>
-  </si>
-  <si>
-    <t>The future of co-working might not be in minimalist loft spaces with bottomless espresso bars. It might be in big box stores.</t>
-  </si>
-  <si>
-    <t>Tesla shareholder T. Rowe Price cut its stake in half in the fourth quarter, a regulatory filing showed on Monday. As of September, prior to the divestiture, T. Rowe was the automaker's second-largest shareholder, trailing only CEO Elon Musk. Now, Baillie Gif…</t>
-  </si>
-  <si>
-    <t>Decision made.</t>
-  </si>
-  <si>
-    <t>Imran Khan's new retail venture, Verishop, takes direct aim at Amazon.</t>
-  </si>
-  <si>
-    <t>The Insider Picks team writes about stuff we think you'll like. Business Insider has affiliate partnerships, so we get a share of the revenue from your purchase. Apple's MacBook Air is on sale at Best Buy for up to $150 off its original price as part of the "…</t>
-  </si>
-  <si>
-    <t>For some, retail arbitrage is a lucrative side hustle, but for others it's how they earn a living, with the potential to make thousands a year</t>
+    <t>Google, Amazon Want Smart Devices to Mine Even More of Your Data</t>
+  </si>
+  <si>
+    <t>Excerpts from recent editorials in newspapers in Illinois</t>
+  </si>
+  <si>
+    <t>Arkansas museum moves to temporary home during $99M revamp</t>
+  </si>
+  <si>
+    <t>Everything you need to know about Eero, the fan-favorite WiFi router company that Amazon just bought (AMZN)</t>
+  </si>
+  <si>
+    <t>IBM's Ginni Rometty says she sees no change in CEO confidence since Powell's last fed speech</t>
+  </si>
+  <si>
+    <t>The new CEO of Google Cloud explains the updated master plan for taking on Amazon Web Services (GOOGL)</t>
+  </si>
+  <si>
+    <t>These are the 20 most congested cities in the world</t>
   </si>
   <si>
     <t>Under Armour Inc. will report fourth-quarter financial results pre-market Tuesday. Analysts largely expect the quarterly report and the 2019 forecast to be inline with the forecasts provided at the company’s December 12 investor day. Particular interest will …</t>
@@ -910,40 +865,25 @@
     <t>The Bellevue home that served as the original Amazon HQ is now for sale for a mere $1.49 million.</t>
   </si>
   <si>
-    <t>https://ftw.usatoday.com/2019/02/kyler-murray-billy-beane-football-baseball-nfl</t>
-  </si>
-  <si>
-    <t>https://business.financialpost.com/technology/blockchain/this-quadriga-client-lost-his-entire-life-savings-in-560000-mistake</t>
-  </si>
-  <si>
-    <t>https://www.wsj.com/articles/how-bad-is-the-china-slowdown-u-s-companies-offer-some-answers-11549908754</t>
-  </si>
-  <si>
-    <t>https://www.wsj.com/articles/national-enquirer-publisher-asked-justice-department-for-advice-on-saudi-connection-11549908996</t>
-  </si>
-  <si>
-    <t>https://www.cnbc.com/2019/02/11/amazon-hq2-is-antithetical-to-our-union-values-nyc-councilman-says.html</t>
-  </si>
-  <si>
-    <t>https://www.cbc.ca/news/canada/toronto/staples-canada-coworking-space-1.5012904</t>
-  </si>
-  <si>
-    <t>https://markets.businessinsider.com/news/stocks/tesla-stock-price-t-rowe-price-large-shareholder-just-cut-stake-in-half-2019-2-1027942200</t>
-  </si>
-  <si>
-    <t>https://www.businessinsider.com/tesla-stock-price-t-rowe-price-large-shareholder-just-cut-stake-in-half-2019-2</t>
-  </si>
-  <si>
-    <t>https://ftw.usatoday.com/2019/02/kyler-murray-mlb-nfl-decision-reaction</t>
-  </si>
-  <si>
-    <t>https://www.cnbc.com/2019/02/11/imran-khan-announces-plans-to-launch-online-retailer-verishop.html</t>
-  </si>
-  <si>
-    <t>https://www.businessinsider.com/macbook-air-sale-best-buy-2019-2</t>
-  </si>
-  <si>
-    <t>https://business.financialpost.com/news/retail-marketing/flesh-and-blood-robots-for-amazon-they-raid-clearance-aisles-and-resell-it-all-online-for-a-profit</t>
+    <t>Amazon and Google say they collect the data to make it easier for people to manage their home electronics. Automatic status updates reduce the time it takes to process voice commands and lets smart-home hubs present up-to-date information on a screen or smart…</t>
+  </si>
+  <si>
+    <t>February 10, 2019</t>
+  </si>
+  <si>
+    <t>LITTLE ROCK, Ark. (AP) — The Arkansas Arts Center will move into a former Walmart in Little Rock while the downtown museum gets a nearly $99 million makeover.</t>
+  </si>
+  <si>
+    <t>Amazon announced its acquisition of a small company called Eero on Monday for an undisclosed amount. Eero makes mesh WiFi systems, which include devices that are designed to be placed throughout a user's home to deliver fast and strong WiFi, even in areas tha…</t>
+  </si>
+  <si>
+    <t>CEO sentiment has been balanced "between growth and efficiency initiatives" since the Federal Reserve said it would be patient, IBM CEO Ginni Rometty says.</t>
+  </si>
+  <si>
+    <t>In his inaugural appearance as the new CEO of Google Cloud on Tuesday, Thomas Kurian said Google Cloud is revamping its master plan as it chases the leading Amazon Web Services. Rather than go after so-called "digital native" companies, Google Cloud is going …</t>
+  </si>
+  <si>
+    <t>The transportation data firm INRIX Research released on Tuesday its annual rankings of the most congested cities in the world. Cities were ranked based on delays caused by congestion, adjusted for each city's population. Moscow was named the most congested ci…</t>
   </si>
   <si>
     <t>https://www.bloomberg.com/news/articles/2019-02-11/under-armour-analysts-eye-margins-for-proof-efforts-paying-off</t>
@@ -1021,12 +961,12 @@
     <t>https://www.washingtonpost.com/weather/2019/02/11/pm-update-some-ice-is-risk-through-early-tuesday-especially-north-west-then-more-rain/</t>
   </si>
   <si>
+    <t>https://www.cnbc.com/2019/02/11/amazon-will-acquire-eero-a-company-that-makes-home-wifi-systems.html</t>
+  </si>
+  <si>
     <t>https://www.cnbc.com/2019/02/11/amazon-is-acquiring-home-wifi-start-up-eero.html</t>
   </si>
   <si>
-    <t>https://www.cnbc.com/2019/02/11/amazon-will-acquire-eero-a-company-that-makes-home-wifi-systems.html</t>
-  </si>
-  <si>
     <t>https://www.businessinsider.com/amazon-acquiring-eero-router-2019-2</t>
   </si>
   <si>
@@ -1141,12 +1081,12 @@
     <t>https://in.reuters.com/article/us-walmart-grocery-deliv-exclusive-idINKCN1Q10IO</t>
   </si>
   <si>
+    <t>https://www.reuters.com/article/us-walmart-grocery-deliv-exclusive-idUSKCN1Q10IO</t>
+  </si>
+  <si>
     <t>https://ca.reuters.com/article/technologyNews/idCAKCN1Q10IO-OCATC</t>
   </si>
   <si>
-    <t>https://www.reuters.com/article/us-walmart-grocery-deliv-exclusive-idUSKCN1Q10IO</t>
-  </si>
-  <si>
     <t>https://ca.reuters.com/article/businessNews/idCAKCN1Q10IO-OCABS</t>
   </si>
   <si>
@@ -1393,334 +1333,79 @@
     <t>http://fortune.com/2019/02/12/bezos-bellevue-home-original-amazon-hq-for-sale/</t>
   </si>
   <si>
+    <t>https://www.bloomberg.com/news/articles/2019-02-12/your-smart-light-can-tell-amazon-and-google-when-you-go-to-bed</t>
+  </si>
+  <si>
+    <t>https://apnews.com/1a0371c3dbeb437284d57c3c98218435</t>
+  </si>
+  <si>
+    <t>https://apnews.com/a7c22f79b2b74be0b33cec9932413e93</t>
+  </si>
+  <si>
+    <t>https://www.businessinsider.com/eero-wifi-router-amazon-acquisition-explained-2019-2</t>
+  </si>
+  <si>
+    <t>https://www.cnbc.com/2019/02/12/ibm-ceo-ginni-rometty-no-change-in-ceo-confidence-since-powell-speech.html</t>
+  </si>
+  <si>
+    <t>https://www.businessinsider.com/google-cloud-thomas-kurian-master-plan-2019-2</t>
+  </si>
+  <si>
+    <t>https://www.businessinsider.com/cities-with-worst-traffic-in-the-world-2019-2</t>
+  </si>
+  <si>
+    <t>bloomberg</t>
+  </si>
+  <si>
+    <t>business-insider</t>
+  </si>
+  <si>
+    <t>the-economist</t>
+  </si>
+  <si>
     <t>usa-today</t>
   </si>
   <si>
+    <t>cnbc</t>
+  </si>
+  <si>
+    <t>the-wall-street-journal</t>
+  </si>
+  <si>
+    <t>associated-press</t>
+  </si>
+  <si>
+    <t>the-globe-and-mail</t>
+  </si>
+  <si>
+    <t>reuters</t>
+  </si>
+  <si>
     <t>financial-post</t>
   </si>
   <si>
-    <t>the-wall-street-journal</t>
-  </si>
-  <si>
-    <t>cnbc</t>
+    <t>the-washington-post</t>
+  </si>
+  <si>
+    <t>fortune</t>
+  </si>
+  <si>
+    <t>nbc-news</t>
+  </si>
+  <si>
+    <t>the-new-york-times</t>
+  </si>
+  <si>
+    <t>fox-news</t>
   </si>
   <si>
     <t>cbc-news</t>
   </si>
   <si>
-    <t>business-insider</t>
-  </si>
-  <si>
-    <t>bloomberg</t>
-  </si>
-  <si>
-    <t>the-economist</t>
-  </si>
-  <si>
-    <t>associated-press</t>
-  </si>
-  <si>
-    <t>the-globe-and-mail</t>
-  </si>
-  <si>
-    <t>reuters</t>
-  </si>
-  <si>
-    <t>the-washington-post</t>
-  </si>
-  <si>
-    <t>fortune</t>
-  </si>
-  <si>
-    <t>nbc-news</t>
-  </si>
-  <si>
-    <t>the-new-york-times</t>
-  </si>
-  <si>
-    <t>fox-news</t>
-  </si>
-  <si>
     <t>financial-times</t>
   </si>
   <si>
     <t>cnn</t>
-  </si>
-  <si>
-    <t>Heisman Trophy winner Kyler Murray has made his decision: He’s choosing football over baseball._x000D_
-Someone should tell team vice president Billy Beane._x000D_
-With pitchers and catchers reporting to Oakland A’s camp on Monday, Beane understandably had to field questions about Murray. Beane said that no decision had been made by the Murray camp an hour before Murray announced his decision._x000D_
-Billy Beane wouldnt get too much into detail on Kyler Murray, only saying As continue to have private conversations with Murray and his team. Wouldnt comment on report of Murray attending combine, saying report didnt come from Murray or his representatives. pic.twitter.com/Z4iM4vBeMZ_x000D_
-— Martín Gallegos (@MartinJGallegos) February 11, 2019_x000D_
-That timing was … interesting._x000D_
-Beane said:_x000D_
-“Things have certainly changed since the draft. A Heisman Trophy. He’s projected to be an early first-round pick … We’ve had ongoing conversations as it relates to the situation and as it relates to Kyler’s future, period. Not just with baseball but also potentially other sports. So, I don’t have any answers for you, and I probably won’t until we’ve decided on the process. All I can tell you is that it hasn’t been decided. And the conversations will continue.”_x000D_
-The former Oklahoma quarterback was a first-round pick by the Oakland A’s in 2018 but was permitted to play his final season of football in Norman. The A’s had the full expectation that he’d be back with the team. Murray just went on to put up historic numbers and played himself into a likely first-round pick in the NFL._x000D_
-If Murray follows through with this announcement to choose a career in the NFL, he would have to pay back and forfeit his $4.6 million signing bonus to the A’s._x000D_
-Kyler Murray will return $1.29 million of the $1.5 million signing bonus money the Oakland As gave him last year. He forfeits the remaining $3.16 million due March 1. The As will put him on the restricted list and retain Murrays rights, but they dont get a comp draft pick._x000D_
-— Jeff Passan (@JeffPassan) February 11, 2019_x000D_
-Brian Hoyer's Amazon and ESPN+ subscriptions helped the Patriots win Super Bowl 53_x000D_
-How Bill Belichick outclassed the NFL's latest genius in Super Bowl 53_x000D_
-The Grammys need to stop bringing out athletes as presenters</t>
-  </si>
-  <si>
-    <t>Tong Zou wasn’t a stereotypical crypto bro bent on accumulating flashy trophies such as Lamborghinis when he deposited his life savings into Quadriga CX’s digital exchange._x000D_
-The 30-year-old software engineer, who’d been working in California for seven years, just wanted to save a few bucks on transfer fees after deciding to move to Vancouver. It proved to be a $560,000 (US$422,000) mistake._x000D_
-“It’s all my savings, so I’m just living on what little I have left and trying to start over,” Zou said in a phone interview Friday from Vancouver, where he has been living out of an AirBnB for the past month. “It pretty much took everything away from me.”_x000D_
-Zou is one of Quadriga’s 115,000 clients who are out of luck after the sudden death of the firm’s founder left $190 million in cryptocurrencies protected by his passwords unretrievable. The exchange has halted operations and was granted protection from creditors on Feb. 5 in Nova Scotia Supreme Court in Halifax._x000D_
-Zou considers himself “one of the largest affected individual users” — according to an affidavit he filed as part of the court proceedings. He bought Bitcoin in the U.S. and transferred it over to Quadriga CX and immediately sold it for Canadian dollars, which was supposed to be deposited into his Canadian bank account. That was in October. He’s still waiting._x000D_
-“I wasn’t using it for trading — I just wanted to move my money over to my Canadian bank account,” Zou said in the interview. “What I didn’t know was that my withdrawal would be pending or incomplete and it never got deposited in my bank account. I’ve been waiting four months so far.”_x000D_
-“A lot of other people are in the same situation as me,” he said._x000D_
-Quadrigas 115,000 clients are out of luck after the sudden death of the firms founder left $190 million in cryptocurrencies protected by his passwords unretrievable.Chris Ratcliffe/Bloomberg_x000D_
-That money was going to help him settle back in Canada, after being away for years. Zou, who grew up in Orillia, Ontario, had moved to the U.S. after graduating from the University of Toronto in 2011. He spent the next seven years working as a software engineer around San Francisco at companies including BitTorrent Inc., Walmart Inc. and Spigit Inc._x000D_
-“I was going to use that money for a deposit on an apartment, but now I can’t do that anymore,” Zou said. “And now I’m currently searching for a job, so it’s kind of a bad time for me.”_x000D_
-Zou has been coordinating with other affected users online and through the Telegram messaging app, and turned to Bennett Jones LLP and McInnes Cooper to represent him and others in Quadriga’s creditor protection proceedings in Halifax._x000D_
-“I just got caught up in this at the wrong time, I guess.”_x000D_
-Other affected customers have since come forward, filing competing submissions to be represented by other law firms including Miller Thomson LLP working with Cox &amp;amp; Palmer, and Osler, Hoskin &amp;amp; Harcourt LLP working with Patterson Law. The matter is scheduled to be heard in Nova Scotia Supreme Court on Feb. 14._x000D_
-Bloomberg.com</t>
-  </si>
-  <si>
-    <t>The factory workhorses are a barometer of the manufacturing sectors fitness. Changes in demand can ease or worsen concerns about China. The Reading, Pa., maker of batteries that power forklifts said those sales in China fell in the latest quarter after rising 10% or more earlier in the year.Weve seen a slowdown, said Michael Schmidtlein, EnerSys finance chief. Given that forklifts are a good indicator of economic activity, their general economy has slowed, and maybe far greater than the authorities are indicating._x000D_
-Fourth-quarter results from U.S. companies highlight the many and varied ways that Chinas cooling economy affects American business, and, in turn, offer a glimpse of whats happening inside China. The indications are that slowing growth there is broad, if still modest. _x000D_
-For U.S. businesses, the repercussions extend well beyond slowing sales at companies with the biggest exposure to Chinas vast economy._x000D_
-Companies like EnerSys are struggling with weaker demand from export manufacturers in China, which are pulling back amid fears that trade tensions will worsen. Retailers and other companies catering to Chinese consumers face signs of weakness among the countrys growing middle class. They are buying fewer cars, phones and are traveling less._x000D_
-Some analysts expect that Chinas slowing growth, and its effects on U.S. companies, will worsen in the first quarter. A recent business-sentiment survey from Oxford Economics found that many North American and European businesses see elevated risks of a sharp global downturn, with many citing Chinas economy and its policy response as significant risks._x000D_
-The expectation is that Q1 is going to be brutal, said Brad Setser, former deputy assistant Treasury secretary for international economic analysis in the Obama administration, and now a senior fellow in international economics at the Council on Foreign Relations._x000D_
-Chinese exports slowed in December and are likely to decelerate more sharply in the first quarter, Mr. Setser said, especially if trade tensions with the U.S. arent resolved: The question is, will the trade truce plus Chinas internal stimulus put Chinas economy back on a stable path?_x000D_
-U.S. and Chinese officials will meet this week for trade negotiations ahead of a March 1 deadline. President Trump in early December delayed plans to increase tariffs on $200 billion of Chinese goods to 25% from 10%, giving the two sides time to strike a comprehensive trade deal._x000D_
-The uncertainty over the path of Chinas economy has gripped the attention of U.S. executives and Wall Street analysts. They mentioned China 225 times during investor conferences and calls for current S&amp;amp;P 500 companies through the first full week of Februarythe most over the same period in at least a decade, according to a Wall Street Journal analysis of transcripts from FactSet._x000D_
-General Motors Co._x000D_
-reported a 25% decline in the number of vehicles it sold in China in the fourth quarter compared with a year earliera grim turn in a year with a 9.8% sales drop. GMs sales shrank faster than those of the industry as a whole, which declined 20% in the fourth quarter and about 6% for the year._x000D_
-GM attributed its weaker performance largely to its lower-margin Wuling and Baojun brands in smaller Chinese cities, where a softening real-estate market has soured consumer sentiment. The companys luxury Cadillac brand, however, rose 17% last year over 2017, driven by sales in Chinas largest and most affluent cities. _x000D_
-One bright spot comes from continued spending by wealthy buyers._x000D_
-Estée Lauder Co_x000D_
-s. said sales in the Asia-Pacific market, led by China and Hong Kong, rose 20% in the second half of last year. Chief executive Fabrizio Freda said in an earnings call last week that high-end beauty products are a relatively affordable luxury that younger Chinese shoppers keep buying, despite a decelerating national economy._x000D_
-Jeweler_x000D_
-﻿Tiffany &amp;amp; Co.,_x000D_
-which rings up as much as 30% of its sales from Chinese consumers, said sales in China rose by more than 10% in the two-month holiday period ended Dec. 31._x000D_
-Outside China, the prospects look less cheery. Analysts say most of Tiffanys sales to Chinese consumers are from Chinese tourists shopping in Hong Kong, Europe and elsewhere. That business hasnt held up as well. Chinese tourists bought less in the Americas and in Hong Kong in the quarter that ended in late October, the company said._x000D_
-Tourism sales also slipped over the holiday period, Tiffany said in a mid-January report. The company traces softened tourist sales to a stronger dollar, which raises travel and overseas shopping costs for Chinese consumers._x000D_
- Gene Ma, head of China research for the Institute of International Finance in Washington, D.C., said government rules to stem capital outflows, including tighter ATM withdrawal limits, likely depressed sales to Chinese tourists abroad, among other factors._x000D_
-Chinas girth_x000D_
-Despite slowing, China still posted economic growth above 6% last year, easily surpassing the U.S. and Europe._x000D_
-The countrys 1.4 billion people and rising middle class bought nearly $52 billion worth of iPhones and other_x000D_
-Apple Inc._x000D_
-products in the fiscal year that ended on Sept. 29. Rapidly expanding megacities such as Shanghai are dotted with_x000D_
-Starbucks_x000D_
-coffee shops, and new buildings ferry passengers on Otis elevators made by_x000D_
-United Technologies Corp._x000D_
-Chinas size and rapid growth in recent years, together with the expansion of American businesses within its economy, mean even a modest slowdown can be felt along supply chains that stretch world-wide._x000D_
- As more companies flagged economic weakness in China in their fourth-quarter results, investors and analysts have worked to untangle the impact on U.S. companies and economic sectors. Many companies disclose sales in Asia, and to a lesser extent in China, but exposure to the Chinese economy is much broader._x000D_
-Companies such as_x000D_
-Mastercard Inc.,_x000D_
-for instance, have no direct business within Chinas domestic economy. Yet it can see the effect of slowing growth, Mastercard CEO Ajay Banga told analysts in a Jan. 31 conference call. Given the size of the Chinese economy, it does impact the global economic picture._x000D_
-About a third of companies in the S&amp;amp;P 500 generate no direct revenue from China, according to estimates by FactSet, based in part on company disclosures. Another third generate at least 3% of sales in China. About 60 of the biggest U.S. companies generate 10% or more of sales there. _x000D_
-Many are technology and industrial companies that sell components to manufacturers that make products in China for export elsewhere, limiting their exposure to a slowing Chinese economy._x000D_
-Everything is built in China but it doesnt necessarily stay in China, said Christopher Rolland, a semiconductor analyst at Susquehanna International Group. Sales numbers, he added, can be an overrepresentation of true Chinese demand._x000D_
-Not all business problems in China are driven by tariffs or slower growth there._x000D_
-Tupperware Brands Corp._x000D_
-, which markets its plastic food containers through a network of individual sellers, last month said revenue and profit across several of its units were below internal projections. The company, in part, blamed weakness in China. The companys shares fell 27% that day._x000D_
- Doug Lane, who runs a boutique investment research firm, said other direct sellers havent mentioned similar problems in China. When companies are reporting numbers below expectations, they tend to blame a lot of things, he said._x000D_
-Tupperware said it generated more than $200 million in revenue in China in 2018, or about 10% of its sales, through 6,700 independent retail locations. It declined to comment._x000D_
-Under pressure_x000D_
-EnerSys, the Pennsylvania-based battery maker, is feeling pressure from all sides: a slowing Chinese economy, new government rules and the China-U.S. trade battle._x000D_
-The company generates about 5% of its total sales in China and about 60% come from the Americas. But it makes some of its batteries in China, and the company competes with Chinese battery makers that sell backup power supplies._x000D_
-EnerSys said sales in Asia in its most recent quarter fell 11% from the prior quarter. A government mandate prompted one of its largest Chinese customers to use more recycled batteries. _x000D_
-In response to slowing sales, EnerSys had planned to use a Chinese factory to produce more products for export to the U.S. That idea was scrapped when the U.S. imposed tariffs on batteries imported from China. EnerSys says now it will export from its Chinese factory to other countries._x000D_
-The cooling Chinese economy has driven down the price of raw materials, including the lead used to make batteries, but it isnt much of a silver lining. _x000D_
-Our inputs are cheaper but the broad demand for our product is less, said Mr. Schmidtlein, the EnerSys finance chief._x000D_
-Other companies are benefiting from lower-priced raw materials on the one hand, and getting pinched by U.S. tariffs on the other. _x000D_
-Masco Corp._x000D_
-, which makes Delta faucets and Hansgrohe shower heads, said it was poised to benefit from lower copper and zinc prices in the second half of last year. Masco also faces increased costs of about $150 million if the U.S. follows through on its threat to raise some tariffs on Chinese imports to 25% this year, the company said in its annual report filed Thursday._x000D_
-If forklift demand is one rough gauge of economic growth, microchips are another. Consumer appetite for high-price electronics, including smartphones, has slowed. So has construction, which means fewer appliance sales. Both are bad news for semiconductor makers, whose chips span all those products. _x000D_
-Is Your Business Affected by Tariffs?_x000D_
-Click here to tell us how. The WSJ wants to hear from readers whose business or job is affected by tariffs._x000D_
-Industrial and consumer end markets have been especially weak in greater China, Keith Jackson, chief executive of ON Semiconductor Corp., said._x000D_
-Chinese manufacturers are cutting back orders of microchips to avoid being left with unsold goods, in case the U.S.-China trade dispute yields higher tariffs, and demand for Chinese-made goods falters._x000D_
-Theyre risk averse. Theyre not going to take any chances. Theyre not going to hold inventory, Thad Trent, the financial chief at Cypress Semiconductor Corp., said Jan. 16 at a conference. We see customers waiting at the last minute to place orders._x000D_
-Chip makers link Chinas slowing growth with the U.S.-China trade fight. Trade is the problem why Chinese economy is weakening so much, said Steve Sanghi, CEO of Microchip Technology Inc., which makes microcontrollers used in electronic and industrial components._x000D_
-Some executives and analysts have said economic softness would dissipate if the trade issues were resolved. Others arent so sure._x000D_
-There are some underlying economic and end-demand issues in China that still need to be dealt with and resolved, said John Vinh, a semiconductors analyst with KeyBanc Capital Markets Inc. There is not potentially a quick fix as easy as resolving the tariff conflict._x000D_
-Write to Austen Hufford at austen.hufford@wsj.com and Theo Francis at theo.francis@wsj.com</t>
-  </si>
-  <si>
-    <t>The dust-up between_x000D_
-Amazon.com Inc._x000D_
- AMZN 0.21%_x000D_
-founder Jeff Bezos and National Enquirer parent American Media LLC has raised questions about the media companys connections to Saudi Arabia. American Media has had plenty of contacts with Saudi Arabia in recent years, including seeking financial backing from Saudi investors to fund acquisitions and producing a magazine celebrating the countrys new crown prince. It also sought advice last year from the U.S. Justice Department over whether the publisher should register as a foreign agent, a person familiar with the matter told The Wall Street Journal._x000D_
-The issue of the ties came up last week when Mr. Bezos took to the internet to push back against what he said was an extortion attempt by the National Enquirer against him over an extramarital affair that the tabloid reported on last month featuring photos and texts. He said he launched his own probe into how the publication obtained his texts as well as its motives and wrote that the Saudi angle seems to hit a particularly sensitive nerve._x000D_
-An attorney for American Media Chief Executive David Pecker on Sunday denied the company had engaged in extortion and said the source of the information for the coverage was not Saudi Arabia._x000D_
-David Pecker, the publisher of the National Enquirer, is facing accusations from Jeff Bezos involving blackmail and political favors. WSJs Jason Bellini breaks down the genesis of Pecker's recent controversies. Photo: Getty_x000D_
-Adel al-Jubeir, a Saudi government official who was in Washington Friday, characterized the dispute between Mr. Bezos and American Media as a soap opera, Asked whether the kingdom played a role, he said, as far as I know: flat no._x000D_
-In recent years, American Media sought Saudi financial backing to finance a failed effort to acquire Time magazine, Sports Illustrated, Fortune and Money, the Journal reported last year. _x000D_
-American Media confirmed the contacts but said the only deal that has ever been discussed with Saudi investors was the expansion of the Mr. Olympia bodybuilding competition, which American Media owns, into the Middle East and North Africa._x000D_
-The lawyer for Mr. Pecker, Elkan Abramowitz, on Sunday on ABC said American Media sought financing from the Saudis, but never obtained any._x000D_
-American Media also produced a promotional magazine about Saudi Arabia. To commemorate Saudi Crown Prince Mohammed bin Salmans visit to the U.S. in March 2018, American Media published 200,000 copies of a 97-page, advertisement-free glossy magazine titled The New Kingdom, promoting the country and its young prince, then 32 years old._x000D_
-In a sign American Media was concerned its connection to Saudi Arabia could become an issue, the company sought advice from the Justice Department last year about whether it should register as a foreign agenta status under which any organization engaged in public relations under the direction or control of a foreign government may fallaccording to a Justice Department letter to the company responding to its inquiry. The publisher wrote to the Justice Department after several news outlets wrote about the publication of the pro-Saudi magazine._x000D_
-The Justice Department posted its response in redacted form. Although American Media isnt named in the letter, the details clearly reference the media company. _x000D_
-A person familiar with the matter confirmed American Media wrote to the Justice Department after publishing the magazine celebrating Prince Mohammed. Frankly, it was done to kiss his ass when he came to visit in the hopes hed invest in the company and it didnt work, the person said of the magazine. There was nothing more to it than that._x000D_
-Justice Department officials wouldnt confirm that the redacted entity is American Media and declined to comment beyond what was in their letter._x000D_
-The publisher gave an adviser to Saudi Arabia a draft of the magazine and followed the advisers editorial suggestions, according to the letter, which was dated July 13, 2018._x000D_
-American Media said in the past that Saudi officials played no role in the production of the magazine. _x000D_
-The company told Justice Department officials in the letter that although it followed the editorial and photography suggestions of the adviser, it wasnt under any contractual obligation to do so. The publisher also told the Justice Department that it didnt receive any foreign money to produce the magazine._x000D_
-Based on those assertions, the Justice Department said the media company didnt need to register as a foreign agent, noting that conclusion could change if the facts in the matter are different in any way from those depicted in your submission._x000D_
-The magazine, which hit U.S. newsstands just ahead of Prince Mohammeds March visit and sold for $13.99, drew attention at the time because of the close relationship that Mr. Pecker and President Trump had. The special issue, which remained on sale for three months, included a glowing editorial about Saudi Arabia by Kacy Grine, a French financial adviser who people familiar with the matter said visited Mr. Trump at the White House in July 2017 with Mr. Pecker and American Media Chief Content Officer Dylan Howard. Mr. Grine didnt respond to a request for comment._x000D_
-Asked on This Week Sunday if the magazine was published in an attempt to curry favor with Saudi Arabia, Mr. Abramowitz said it was published for journalistic reasons._x000D_
-At the July 2017 meeting, Mr. Trump alluded to the Enquirers positive coverage of his election campaign and presidency._x000D_
-Editor man, editor man, how many more covers of the Enquirer have I been on than Arnold Schwarzenegger? Mr. Trump asked Mr. Howard, according to people familiar with the matter._x000D_
-A White House official said that Mr. Trump recalled the Oval Office meeting with Mr. Pecker and others and that he called the American Media CEO a great guy, the Journal reported last year._x000D_
-Mr. Pecker has admitted buying embarrassing stories about Mr. Trump and burying them, a practice known as catch and kill. In exchange for immunity, the publisher and Mr. Pecker last year agreed to cooperate with federal prosecutors investigating former Trump lawyer Michael Cohen, who arranged payments during the 2016 campaign to silence two women who alleged sexual encounters with Mr. Trump. Federal prosecutors in Manhattan are examining whether the Enquirers dealings with Mr. Bezos violated the nonprosecution agreement, according to people familiar with the matter_x000D_
-The crown prince visited Mr. Trump at the White House during his March 2018 trip._x000D_
-Since the crown princes visit, his reputation and the relationship between the U.S. and Saudi Arabia have frayed. In October, Washington Post columnist Jamal Khashoggi was killed at a Saudi consulate in Turkey, which the CIA has concluded was likely ordered by the crown prince. The Saudi government has contested the findings._x000D_
-The Posts essential and unrelenting coverage of the murder of its columnist Jamal Khashoggi is undoubtedly unpopular in certain circles, Mr. Bezos wrote in his blog post Thursday. Mr. Bezos owns the Washington Post._x000D_
-Write to Julie Bykowicz at julie.bykowicz@wsj.com and Lukas I. Alpert at lukas.alpert@wsj.com</t>
-  </si>
-  <si>
-    <t>Amazon has shown that it is "antithetical" to New York values, and the company should not be allowed to build its second headquarters in Queens until it changes its ways, City Councilman Jimmy Van Bramer told CNBC on Monday._x000D_
-div &amp;gt; div.group &amp;gt; p:first-child"&amp;gt;_x000D_
-Bramer, deputy leader of the 51-member council, said one reason he is against the HQ2 deal is because of the online shopping behemoth's stance on labor unions._x000D_
-"They remarkably came to the City Council last week and declared not only would they not remain neutral when it came to efforts of their employees ... to organize but that they would actually fight to crush any effort of their employees to unionize," the Queens borough representative said on "Squawk on the Street." "This is a union town. I grew up in a union family. We've got to stand up for our values there."_x000D_
-Bramer, a Democrat, also called out Amazon's reported ties to federal Immigration and Customs Enforcement agency._x000D_
-Some Amazon shareholders have urged the tech giant to stop selling Rekognition, its facial recognition technology, to some government agencies. They have also said that Amazon is planning to pitch the service to ICE._x000D_
-"Obviously we're a sanctuary city. The mayor and all of us have declared that we want to be a safe haven for all immigrants, including the undocumented," Bramer said. "Amazon refuses to budge on that issue."_x000D_
-The company has defended selling Rekognition to law enforcement._x000D_
-Bramer believes Gov. Andrew Cuomo and Mayor Bill de Blasio, also Democrats, "botched" the deal, which includes roughly $3 billion in tax incentives, to lure the Seattle-based company's investment. The plan is to bring part of its second headquarters and 25,000 jobs to the Long Island City neighborhood in Queens._x000D_
-"All of those reasons and more lead us to fight this deal because at the end of the day, it's a bad deal for New York," Bramer said._x000D_
-The Washington Post reported on Friday that Amazon is reconsidering the New York development due to local opposition._x000D_
-In response to the report, Cuomo said "we have to make Amazon a reality" in New York and that "it is irresponsible to allow political opposition to overcome sound government policy." He equated such opposition to "malpractice" because the headquarters would create so many jobs in the city._x000D_
-De Blasio's office has defended tax incentives offered by the city for the project, saying it could generate $12.5 billion in future tax revenues._x000D_
-Amazon did not immediately respond to a request for comment.</t>
-  </si>
-  <si>
-    <t>The future of co-working spaces may not be in hip open-concept lofts.   _x000D_
-Co-working in which entrepreneurs and freelancers rent out desks at a shared workspace  is growing rapidly, and big companies are looking to get in on the action as a way to monetize empty space. _x000D_
-Last month, Staples Canada opened Staples Studio at its University Avenue location in downtown Toronto. The venture is described by the company as a combination of co-working space, retail, and services. _x000D_
-"Why did we go into co-working? Quite frankly, our customers were telling us the way they work is changing," said Staples Canada CEO David Boone. _x000D_
-With competitors like Amazon and Walmart cutting into Staples' retail business, and with its online sales growing faster than in-store purchases, Boone said re-purposing extra space in stores is key. _x000D_
-"Clearly, the retail industry is going through a lot of change," he said. "And those retailers that adapt are going to win."_x000D_
-Global growth of shared workspaces_x000D_
-As workers become more nomadic, co-working spaces are an increasingly popular option. _x000D_
-According to the Global Coworking Unconference Conference, a company which produces conferences on co-working, there were around 14,000 co-working spaces around the world in 2017._x000D_
-They expect that number to climb to 30,000 spaces by 2022._x000D_
-In Toronto, a variety of spots have popped up to fill the need, including a parent-friendly co-working space, a space just for female entrepeneurs, and a business that connects freelancers to empty restaurants where they can sit and work. _x000D_
-As of this past December, even the federal government is considering getting in on the action. _x000D_
-Staples Studio coming to a city near you_x000D_
-Toronto startup Healthy Pets, a telemedicine company that connects pet owners and vets, relocated its team to Staples Studio after a strenuous search for the right space. _x000D_
-"It was actually a very difficult process because a lot of co-working spaces in the city are either full or very expensive," the company's lead software engineer Dennis Turko said._x000D_
-Turko said being at Staples Studio saves his company time because the office was ready to go when they moved in. _x000D_
-"Previously, we have... purchased all of our supplies, whether it's hardware, whether it's computers, whether it's stationary," he said._x000D_
-In that sense, having an office with a Staples store so close at hand has been convenient, he said the team never wants for office supplies. _x000D_
-That's what Boone means when he says Staples Studio offers a "complete experience" that's unlike other co-working spaces. _x000D_
-Boone says he plans to take the co-working model to other cities later this year._x000D_
-U of T space now for rent _x000D_
-The push towards co-working is happening in universities as well. _x000D_
-In 2017, The University of Toronto launched ONRamp, a 15,000 square foot office space that's sponsored by RBC and is free to student entrepreneurs and recent alumni.  _x000D_
-U of T Entrepreneurship managing director Keri Damen told CBC Toronto the university also rents out space at a "competitive" price._x000D_
-"We wanted to create a central space where all these entrepreneurs from engineering or medicine or business or Scarborough or Mississauga, they could come together to share and work together in a space," Damen said.</t>
-  </si>
-  <si>
-    <t>Joe Skipper/Reuters_x000D_
-Tesla shareholder T. Rowe Price cut its stake in half in the fourth quarter, a regulatory filing showed on Monday. _x000D_
-As of September, prior to the divestiture, T. Rowe was the automaker's second-largest shareholder, trailing only CEO Elon Musk._x000D_
-Now, Baillie Gifford is Tesla's biggest institutional stakeholder._x000D_
-Watch Tesla trade live._x000D_
-T. Rowe Price, formerly Tesla's largest institutional shareholder, cut its stake in half in the fourth quarter, a regulatory filing showed on Monday. _x000D_
-The filing showed that T. Rowe had reduced its stake to 5.2% as of the end of December, down from the 10.12% stake it held in September. Prior to the divestiture, T. Rowe was Tesla's second-largest overall shareholder, trailing only CEO Elon Musk._x000D_
-The move makes Scottish investing giant Baillie Gifford Tesla's biggest institutional stakeholder._x000D_
-Tesla investors didn't seem particularly perturbed by the development. The company's stock climbed 3.59% on Monday, trading near $316.77 per share._x000D_
-T. Rowe's withdrawal of investment could be reflective of broader concerns about the company's ability to self-fund its growth ambitions. On January 30, the tech company reported worse-than-expected profits for the fourth quarter, despite achieving two consecutive profitable quarters for the first time._x000D_
-And while Tesla swore it would be profitable in "all quarters going forward," Morgan Stanley says the company will still need to raise more external capital._x000D_
-"We forecast Tesla 1Q19 free cash flow to be negative $600 million driven by a sequential decline in profit and working capital leakage," Adam Jonas, an analyst at Morgan Stanley, said recently. He pushed out his forecast of a $2.5 billion equity capital raise to the third quarter of the year._x000D_
-Tesla is up 3.1% so far this year._x000D_
-MI</t>
-  </si>
-  <si>
-    <t>T. Rowe Price, formerly Tesla's largest institutional shareholder, cut its stake in half in the fourth quarter, a regulatory filing showed on Monday. _x000D_
- The filing showed that T. Rowe had reduced its stake to 5.2% as of the end of December, down from the 10.12% stake it held in September. Prior to the divestiture, T. Rowe was Tesla's second-largest overall shareholder, trailing only CEO Elon Musk. _x000D_
- The move makes Scottish investing giant Baillie Gifford Tesla's biggest institutional stakeholder. _x000D_
- Tesla investors didn't seem particularly perturbed by the development. The company's stock climbed 3.59% on Monday, trading near $316.77 per share. _x000D_
- T. Rowe's withdrawal of investment could be reflective of broader concerns about the company's ability to self-fund its growth ambitions. On January 30, the tech company reported worse-than-expected profits for the fourth quarter, despite achieving two consecutive profitable quarters for the first time. _x000D_
- And while Tesla swore it would be profitable in "all quarters going forward," Morgan Stanley says the company will still need to raise more external capital. _x000D_
- "We forecast Tesla 1Q19 free cash flow to be negative $600 million driven by a sequential decline in profit and working capital leakage," Adam Jonas, an analyst at Morgan Stanley, said recently. He pushed out his forecast of a $2.5 billion equity capital raise to the third quarter of the year. _x000D_
- Tesla is up 3.1% so far this year. _x000D_
-MI</t>
-  </si>
-  <si>
-    <t>The Oakland A’s had hoped that 2018 first-round pick Kyler Murray would report to spring training, but that’s clearly not going to happen._x000D_
-Murray is choosing football._x000D_
-The Heisman Trophy winner announced Monday that he will pursue a career as an NFL quarterback over playing baseball for the A’s._x000D_
-Murray is a projected first-round pick in April’s draft and will almost certainly become the first athlete to be drafted in the first round of both the NFL and MLB._x000D_
-The former Oklahoma quarterback had been leaning towards football, but his announcement — which came right after A’s exec Billy Beane said no decision had been made — got the sports world buzzing._x000D_
-Kyler Murray: Why Im leaving The Athletics_x000D_
-— Tom Fornelli (@TomFornelli) February 11, 2019_x000D_
-Kyler Murray had a choice, stay relevant and follow your passion, or play baseball and… not._x000D_
-He picked the NFL._x000D_
-— Dov Kleiman (@NFL_DovKleiman) February 11, 2019_x000D_
-From the moment Kyler Murray looked like a Heisman Trophy-caliber quarterback, the Oakland As knew they were longshots to keep him playing baseball. This is a bummer for MLB, but it was the likeliest outcome. https://t.co/nzhFEJeU3T_x000D_
-— Jeff Passan (@JeffPassan) February 11, 2019_x000D_
-I just cant believe Kyler Murray would choose a first round contract and signing bonus in the NFL over letting the notoriously cheap Oakland As manipulate his free agency eligibility for the next half decade._x000D_
-— Chase Ruttig (@ChaseRuttig) February 11, 2019_x000D_
-MLB was willing to bend rules to convince a kid, who did not have any guarantee of being a star, of choosing baseball over football and failed. Not a great look for a sport whose narrative is that young people dont want to sit through a game anymore. https://t.co/zUaXutOOG0_x000D_
-— Joon Lee (@joonlee) February 11, 2019_x000D_
-Read more from USA TODAY Sports. _x000D_
-Kyler Murray chose football right after A's exec Billy Beane said no decision had been made_x000D_
-Brian Hoyer's Amazon and ESPN+ subscriptions helped the Patriots win Super Bowl 53_x000D_
-How Bill Belichick outclassed the NFL's latest genius in Super Bowl 53</t>
-  </si>
-  <si>
-    <t>Imran Khan, a former top exec at Snap, has plans to go after Amazon._x000D_
-div &amp;gt; div.group &amp;gt; p:first-child"&amp;gt;_x000D_
-Though details are still scarce, Khan's new retail company, called Verishop, said Monday in a post on Medium that it plans to launch an e-commerce platform for vetted brands that brings back to customers the "joy of discovering something new that you truly love" on the internet._x000D_
-"We see an opportunity for an e-commerce company to bring joy back to online shopping and do it at scale with the ease of online purchasing and fast delivery we've all come to expect," the blog post said. Verishop added that the company has been communicating with up-and-coming brands that share frustrations over existing online retail platforms that have counterfeit products or that hurt brand integrity._x000D_
-"E-commerce was supposed to make shopping easier, and for everyday commodity items, it has," the blog post said._x000D_
-Businesses that have already agreed to sell on Verishop include beauty retailers Ursa Major and Indie Lee, bedding maker Primary Goods, and apparel brands J.O.A, Finders Keepers and N:Philanthropy, according to a person familiar with these partnerships. The person, who asked to remain anonymous because the website hasn't launched yet, also said Verishop is in discussions with a number of direct-to-consumer brands about joining the platform._x000D_
-Verishop's leadership team includes Khan, who spent three years at Snap as chief strategy officer, as well as his wife Cate Khan, who spent eight years at Amazon._x000D_
-The company said it's raised $17.5 million to date from investors, led by Lightspeed Ventures.</t>
-  </si>
-  <si>
-    <t>The Insider Picks team writes about stuff we think you'll like. Business Insider has affiliate partnerships, so we get a share of the revenue from your purchase. The new MacBook Air is $100 to $150 off at Best Buy as part of the store's "Apple Shopping Event." Best Buy doesn't say exactly how long this sale is going to last, but most deals last about a week at the big-box retailer. _x000D_
- Apple's laptop line is a little crowded, but the new MacBook Air stands out in a few key ways, making it a great buy — especially at this lower price. _x000D_
- As its name suggests, the Air is thin and light, but still powerful enough to handle most tasks you throw at it. It has all the processor power, memory, and storage to handle Microsoft Office or the Google Suite, web browsing, and HD video streaming without breaking a sweat. Its high-resolution, "retina" screen also makes it a good choice for light photo and video editing, although you might notice some strain if you're working with 4K footage. _x000D_
- Apple says that the MacBook Air can get up to 12 hours of battery life, which should be more than enough to get you through an average day on a single charge. If you're a student or an average computer user who occasionally works with photos, videos, and audio, the MacBook Air is a good choice. _x000D_
- You'll notice that two models of the MacBook Air are on sale, the only difference between the two of them is the amount of storage inside. If you mostly stream your media and work with documents and presentations in the cloud, the base model is a good choice for $1,099.99. If you work with high-resolution photos and videos more often, you should consider the the higher-storage model for $1,249.99. _x000D_
- Apple rarely discounts its tech, and it's unusual to see its gadgets go on sale so soon after release, so if you're in the market for a new laptop, don't wait too long.</t>
-  </si>
-  <si>
-    <t>With their two young kids in tow, Juston and Kristen Herbert drove to a Target near their home outside Scottsdale, Arizona. It was time to get to work._x000D_
-The Herberts were on the hunt for all of the Contigo water bottles the store had in stock, and kept the camera rolling for their 6,400 YouTube subscribers. Within minutes, an employee pulled out 32 two-packs — sold on clearance for US$5 each — from a back storage room. For two people who recently left their jobs in finance, the blue-and-black plastic bottles might as well have been made of gold. The Herberts would resell the two-packs on Amazon for US$19.95. Subtracting some taxes and fees, they’d clear US$6.16 in profit. All told, the Herbert’s 10-minute Target run earned them US$198._x000D_
-Juston, 30, and Kristen, 28, estimate they can reel in US$150,000 this year from their newest gig: retail arbitrage. The basic idea is to buy up a bunch of the same item — from water bottles to vacuums to Monopoly boards — and then resell them online for a handsome profit._x000D_
-For some, this is just a lucrative side hustle — perhaps to climb out of debt or save up for a Disney World vacation. For others, it has become their primary way of earning a living. And beyond that, the Herberts say, this work is helping them build up US$50,000 so they can adopt a child._x000D_
-“If we’re showing that you can come up with big money for an adoption,” Kristen said, “you can come up with big money to get yourself out of a hole, credit card debt or a house payment.”_x000D_
-While the idea to buy something cheap and sell it at a higher price is age-old, the concept of retail arbitrage has emerged in the digital age._x000D_
-In between stops at different stores, the Herbert family often takes breaks to play in the park.Dominic Valente / _x000D_
-For The Washington Post_x000D_
-Chris Green wrote one of the go-to how-to books on the topic, titled “Retail Arbitrage.” And he’s helped popularize the moniker._x000D_
-The term seems to be having a moment. In December, according to Google Trends, searches for “retail arbitrage” spiked on YouTube, where aficionados post videos of their shopping and reselling sprees. (One reseller, who has more than 52,000 YouTube subscribers, filmed his 22-hour buying binge through 17 Walmarts. He filled his trunk with 182 Monopoly games and flipped most of them in one night for US$2,500.)_x000D_
-In the early 2000s, resellers started flipping products on eBay. But Green’s guide focused on the engine behind many of these small businesses: Fulfillment By Amazon, or FBA._x000D_
-I see money everywhere. If I walk into a store, it's just like a dollar sign sitting on the shelf_x000D_
-Through FBA, people can add their own products to Amazon’s vast online catalogue. Sellers package their products and ship them to Amazon warehouses, where they are stored until an order comes in. Amazon takes it from there — pulling an item off the warehouse shelf and getting it to the customer’s door._x000D_
-Green, who’s been dubbed the “godfather of retail arbitrage,” used to be a sales representative for Bosch Power Tools. He started reselling power tools on eBay in the early 2000s._x000D_
-Then, with the rise of Android and iPhone apps that can scan products and track down major sales, Green realized retail arbitrage could work for anyone, even those who didn’t know the inner workings of an industry._x000D_
-“I used to teach grandmas to do it,” Green said._x000D_
-For Mike “Reezy Resells” Rezendes, retail arbitrage has been a kind of salvation. Rezendes said he grew up in a troubled household and was married with a child by 16. As a teenager, he noticed commercials for eBay on TV and started selling whatever he could rummage around the house, like his Nintendo and its games and controllers._x000D_
-Now, Rezendes, 34, has been reselling items online full-time for 14 years. His YouTube channel, “Reezy Resells,” has more than 85,000 subscribers (Rezendes calls his followers “Reezy’s ninjas.”) He runs his company with his best friend from high school and oversees a small team who buy up goods from stores like Nike, Marshalls and Ross._x000D_
-Juston Herbert fixes his daughters sandal after theyve loaded the car.Dominic Valente / _x000D_
-For The Washington Post_x000D_
-Last year, the company saw US$800,000 in gross sales for about US$240,000 in profit. In January, he got more than US$8,000 in ad revenue from YouTube._x000D_
-One day last month, Rezendes had more than 100 pairs of Nike shoes in his garage that he planned to ship to Amazon. He was working on a YouTube video breaking down how he bought 100 Nerf guns from Target.com and flipped them for US$1,500._x000D_
-Rezendes, who lives in Santa Cruz, California, said retail arbitrage has kept him from having to fill a 9-to-5 desk job. But he also knows online resellers and small-business owners like him are crucial to Amazon’s model._x000D_
-Amazon “needs people like me to fill all the holes in the marketplace,” he said._x000D_
-“We’re literally flesh-and-blood robots for Amazon,” Rezendes said._x000D_
-The retail giant hasn’t shied away from promoting its small businesses: In 2018, the number of small and medium-size businesses that passed US$1 million in sales in Amazon stores worldwide grew by 20 per cent. Third-party sales are growing at a faster rate than first-party sales online, the company said last month._x000D_
-You’ll find Shane Myers on YouTube as the “Rise N Grind Picker” — with 15,000 YouTube subscribers._x000D_
-(Amazon) needs people like me to fill all the holes in the marketplace_x000D_
-Mike 'Reezy Resells' Rezendes_x000D_
-Three years ago, with US$20 in his savings account, Myers started reselling thrift store merchandise on eBay. He turned to Amazon in August. By September, Myers had churned out more than US$2,000 selling used books alone. In his first three months back on retail arbitrage, he’d paid off all his credit card debt and car payments._x000D_
-Myers, 31, pays US$30 a month for an app called BrickSeek, which helps him find markdowns at big-box stores like Walmart and Target. A few weeks ago, Myers hit multiple Walmarts within a 150-mile radius and came home with 218 packages of lightbulbs. He found them on clearance for US$2 each. He marked up the price and netted US$4 to US$5 on each package._x000D_
-The grand total: more than US$1,100 in profit._x000D_
-Myers hopes that within the next year and a half he can move to retail arbitrage full time and will have paid off his house. And he hopes he’ll never miss his daughter’s birthday again for work, like when he was clocking in at his old day job in retail._x000D_
-“I see money everywhere,” Myers said. “If I walk into a store, it’s just like a dollar sign sitting on the shelf.”_x000D_
-The Washington Post</t>
   </si>
   <si>
     <t>Pedestrians and shoppers walk past an Under Armour store._x000D_
@@ -2038,6 +1723,8 @@
   <si>
     <t>WASHINGTON (AP) Private investigators working for Jeff Bezos have determined the brother of the Amazon CEO's mistress leaked the couple's intimate text messages to the National Enquirer._x000D_
 That's according to a person familiar with the matter who spoke Monday to The Associated Press. The person wasn't authorized to discuss the matter publicly and spoke to AP on condition of anonymity._x000D_
+The new cost for doing business in Tulsa._x000D_
+For those who care about business and this community, we have a deal for you. Start a digital subscription for only $0.99. Sign up now at tulsaworld.com/subscribe._x000D_
 The Enquirer published a story last month that included racy texts between Bezos and former TV anchor Lauren Sanchez. Bezos said the tabloid later threatened to expose his revealing photos if he didn't have his private investigators back off._x000D_
 The person says those investigators identified Michael Sanchez, a California talent manager, as the person who leaked the texts._x000D_
 Sanchez didn't immediately respond to a message seeking comment on Monday._x000D_
@@ -2046,8 +1733,6 @@
   <si>
     <t>WASHINGTON (AP) Private investigators working for Jeff Bezos have determined the brother of the Amazon CEO's mistress leaked the couple's intimate text messages to the National Enquirer._x000D_
 That's according to a person familiar with the matter who spoke Monday to The Associated Press. The person wasn't authorized to discuss the matter publicly and spoke to AP on condition of anonymity._x000D_
-The new cost for doing business in Tulsa._x000D_
-For those who care about business and this community, we have a deal for you. Start a digital subscription for only $0.99. Sign up now at tulsaworld.com/subscribe._x000D_
 The Enquirer published a story last month that included racy texts between Bezos and former TV anchor Lauren Sanchez. Bezos said the tabloid later threatened to expose his revealing photos if he didn't have his private investigators back off._x000D_
 The person says those investigators identified Michael Sanchez, a California talent manager, as the person who leaked the texts._x000D_
 Sanchez didn't immediately respond to a message seeking comment on Monday._x000D_
@@ -2219,6 +1904,13 @@
 Want our 5 a.m. forecast delivered to your email inbox? Subscribe here.</t>
   </si>
   <si>
+    <t>Amazon on Monday said that it has acquired Eero, a start-up that developed home internet routers that can be connected with one another inside homes. Terms of the deal weren't disclosed._x000D_
+div &amp;gt; div.group &amp;gt; p:first-child"&amp;gt;_x000D_
+Google has a competing product called Google Wifi._x000D_
+"We are incredibly impressed with the eero team and how quickly they invented a WiFi solution that makes connected devices just work," Dave Limp, senior vice president for Amazon devices and services, said in a statement. "We have a shared vision that the smart home experience can get even easier, and we're committed to continue innovating on behalf of customers."_x000D_
+Eero was founded in 2014 and had headquarters in San Francisco. More than 150 people are listed as Eero employees on LinkedIn.This story is developing. Please check back for updates.</t>
+  </si>
+  <si>
     <t>Amazon on Monday said that it has acquired eero, a start-up that developed home internet routers that can be connected with one another inside homes. Terms of the deal weren't disclosed._x000D_
 div &amp;gt; div.group &amp;gt; p:first-child"&amp;gt;_x000D_
 Google has a competing product called Google Wifi. Apple discontinued AirPort home routers last year._x000D_
@@ -2227,13 +1919,6 @@
 Eero was founded in 2014 and had headquarters in San Francisco. More than 150 people are listed as eero employees on LinkedIn. Investors include Playground Global, Redpoint Ventures and Shasta Ventures. The start-up laid off one-fifth of its employees last year, TechCrunch reported._x000D_
 This is a developing story._x000D_
 Subscribe to CNBC on YouTube.</t>
-  </si>
-  <si>
-    <t>Amazon on Monday said that it has acquired Eero, a start-up that developed home internet routers that can be connected with one another inside homes. Terms of the deal weren't disclosed._x000D_
-div &amp;gt; div.group &amp;gt; p:first-child"&amp;gt;_x000D_
-Google has a competing product called Google Wifi._x000D_
-"We are incredibly impressed with the eero team and how quickly they invented a WiFi solution that makes connected devices just work," Dave Limp, senior vice president for Amazon devices and services, said in a statement. "We have a shared vision that the smart home experience can get even easier, and we're committed to continue innovating on behalf of customers."_x000D_
-Eero was founded in 2014 and had headquarters in San Francisco. More than 150 people are listed as Eero employees on LinkedIn.This story is developing. Please check back for updates.</t>
   </si>
   <si>
     <t>Amazon is acquiring the home mesh wi-fi router company Eero, the companies announced in a press release Monday. _x000D_
@@ -4791,6 +4476,139 @@
 An affordable, single-story slice of history it is. While West Bellevue is the most expensive neighborhood in the region, according to The Seattle Times, it is below the areas median home price of about $2 million. The lower price may also reflect a softening regional real estate market, where the number of unsold homes has more than double from last year._x000D_
 Nevertheless, the houses value has climbed considerably in the years since Bezos lived there. The Seattle Times reports that while the house was valued at $135,000 in 1994, it was bought for $182,000 in 1998. In 2009, when the current owners purchased the house, they paid $620,000less than half of its current asking price._x000D_
 But prospective buyers be warned: the house will not look identical to how it did when Bezos made it his residence. In 2001, the house was reportedly extensively remodeled, including installing a new roof and bathroomand the garage was remodeled too. However, it does have the signature oversized mailbox Bezos installed.</t>
+  </si>
+  <si>
+    <t>(Bloomberg) -- As Amazon.com Inc. and Google work to place their smart speakers at the center of the internet-connected home, both technology giants are expanding the amount of data they gather about customers who use their voice software to control other gadgets._x000D_
+For several years, Amazon and Google have collected data every time someone used a smart speaker to turn on a light or lock a door. Now they’re asking smart-home gadget makers such as Logitech and Hunter Fan Co. to send a continuous stream of information._x000D_
+In other words, after you connect a light fixture to Alexa, Amazon wants to know every time the light is turned on or off, regardless of whether you asked Alexa to toggle the switch. Televisions must report the channel they’re set to. Smart locks must keep the company apprised whether or not the front door bolt is engaged._x000D_
+This information may seem mundane compared with smartphone geolocation software that follows you around or the trove of personal data Facebook Inc. vacuums up based on your activity. But even gadgets as simple as light bulbs could enable tech companies to fill in blanks about their customers and use the data for marketing purposes. Having already amassed a digital record of activity in public spaces, critics say, tech companies are now bent on establishing a beachhead in the home._x000D_
+“You can learn the behaviors of a household based on their patterns,” says Brad Russell, who tracks smart home products for researcher Parks Associates Inc. “One of the most foundational things is occupancy. There’s a lot they could do with that.”_x000D_
+Some device makers are pushing back, saying automatic device updates don’t give users enough control over what data they share, or how it can be used. Public guidelines published by Amazon and Google don’t appear to set limits on what the companies can do with the information they glean about how people use appliances._x000D_
+Amazon and Google say they collect the data to make it easier for people to manage their home electronics. Automatic status updates reduce the time it takes to process voice commands and lets smart-home hubs present up-to-date information on a screen or smartphone app. Greater awareness of what’s going on also lets them proactively suggest helpful uses for their voice assistants, and develop new ones._x000D_
+Smart speakers are among the fastest growing categories of consumer electronics, led by Amazon’s Echo and Google’s Home devices. That’s pushed the companies and their Alexa and Assistant software deeper into debates about the tradeoffs between useful services and the harvesting of personal data. Both have had public pratfalls around privacy of voice commands, either recording private messages in error or sending them to others._x000D_
+The commercial success of voice assistants has bolstered dozens of companies working to build interest in internet-enabled televisions, kitchen appliances and other devices. Many people first start tinkering with connected appliances after buying a smart speaker. Surveys show about a quarter of U.S. smart speaker owners regularly use them to control something else, a percentage analysts expect to rise._x000D_
+When smart speakers first hit the market, using them to command another device worked like this. After receiving the command “Alexa, turn on the light,” the software would ask the light bulb maker’s servers for the current status of the bulb. After a reply came back confirming the switch was off, Alexa would instruct the light to turn on._x000D_
+Now, in a push that accelerated last year, Amazon and Google are recommending—and, in some cases, requiring—that smart home makers tweak their code to reverse that relationship. Instead, the light bulb must report in to the hub with its status at all times._x000D_
+“Oversharing for the sake of oversharing is probably never a good thing,” says Ian Crowe, a senior director with Logitech International S.A., a builder of computer and home electronics accessories. “We should have a good reason, and our users should agree it’s a good reason,” before sharing data._x000D_
+Logitech has tried to meet Amazon and Google halfway. Rather than tell smart speakers what each device connected to Logitech's Harmony remote controls were doing, Crowe says Logitech reports back with broad descriptions, specifying that a user is watching television instead of passing on information about their choice of channel, for instance._x000D_
+“There are very relevant concerns about how much the system knows,” he says._x000D_
+Crowe says Logitech has had conversations about status reporting with Amazon and Google, but declined to detail them. Executives at two other smart device makers, speaking on the condition of anonymity to protect business relationships, say they’ve asked for concessions from Amazon and Google related to user privacy or transparency and guarantees about use of the data, but been rebuffed._x000D_
+An Amazon spokesman says the company doesn’t sell user data and doesn’t use information it gets from status reports for advertising. Status reports, he says, are designed to enable useful features for customers. He declined to comment on how long Amazon stores the data. A Google spokesman declined to comment on the company’s implementation of status updates._x000D_
+Russell, the analyst with Parks Associates, calls status reporting “a bit of a Trojan Horse request.” Amazon and Google, he says, are suggesting “‘Hey, help us help you by giving us the status of your device, and make everyone’s life easier.’ But what they’re not saying is, ‘Gee, we can do a lot with that data.”_x000D_
+Even light fixtures, in elaborate setups, are a map of home life: When do you get home? When does the light in your child’s bedroom usually go off? What days do you burn the midnight oil?_x000D_
+Still, the nascent smart-home market is fiercely contested, and some critics acknowledge their worries about data collection are partly motivated by concerns that Amazon and Google will use their central position to muscle out rivals and dictate terms to the rest of the market. Moreover, some other smart-home companies themselves gather status reports, though they lack the scale or billion-dollar advertising businesses of the tech giants._x000D_
+Meanwhile, plenty of companies say they are on-board with status reporting. Matt McPherson, an engineering manager with Hunter Fan Co., says that before the advent of status reports, device sometimes shut down without answering the user's command. “Do I think these guys are intentionally grabbing data in order to find some way of advertising?” he asks. “At this moment I don’t think so, but I can see something of that nature happening in the future.”_x000D_
+Some say Amazon and Google would do well to be more transparent by telling users, outside of the confines of lengthy privacy policies, what data they’re collecting and offering more fine-grained options for managing it. Amazon and Google let users delete accumulated smart-home data, but neither offers an option to stop collecting it from specific devices in the first place. Currently, the only way customers can disable data sharing for a specific device is to unplug it from the system._x000D_
+“We know that there are consumer concerns, deeper than what’s been written about, about how much listening is really going on by any voice system,” says Martin Plaehn, who runs Control4 Corp., a manufacturer of home automation technology._x000D_
+People intuitively understand that by asking a voice assistant to control a device, they’re giving that company information about that action, he says. It’s less likely they know that linking a television to the system begins a process of transmitting updates when someone changes the channel or turns it on or off._x000D_
+“There isn’t an implicit permission of, ‘Go ahead and take all my data whenever [something] changes,’” Plaehn says. “And we think that if the world really knew that was going on, it would create a real kerfuffle.”</t>
+  </si>
+  <si>
+    <t>February 10, 2019_x000D_
+Chicago Tribune_x000D_
+Measles surges again as it finds a weak spot: Anti-vax parents_x000D_
+If a disease were striking children, causing rash and fever and sometimes escalating to brain swelling, pneumonia and even death, there would be a public demand to do something about it._x000D_
+America did, and measles was declared eradicated here in 2000._x000D_
+Now the malady is back in Illinois and at least nine other states, with two cases in downstate Champaign and an alarming breakout in the Pacific Northwest, where the governor of Washington has declared a state of emergency._x000D_
+Blame a stubbornly resistant anti-vaccine movement driven by dangerous pseudoscience and the worst impulses of obsessive overparenting. "I know what's best for my child!" anti-vax parents say, and measles spreads._x000D_
+The World Health Organization warned Thursday of a dramatic rise in measles cases globally as parents reject vaccines for their children. In Europe, measles cases reached their highest level in a decade in 2018. Outbreaks have hit the Philippines and Madagascar. In a world of global travel, these aren't distant concerns. A monthslong series of cases in New York has been traced to an unvaccinated child who caught the disease on a trip to Israel._x000D_
+Measles can cause lifelong effects including deafness. It is ugly, with its blotchy, fevered spots, some of which leave permanent scars. It's highly contagious and miserable to experience._x000D_
+A worried anti-vaccinations parent posted on Facebook to ask whether there were any precautions she could take to protect her 3-year-old from a measles outbreak. Ah yes, if only there were a way. She was rightly given a social media spanking._x000D_
+Measles vaccine is 97 percent effective after two doses, which usually also protect against mumps, rubella and sometimes varicella, or chickenpox, according to the U.S. Centers for Disease Control and Prevention. A well-vaccinated population takes on a "herd immunity" that hinders outbreaks. Some states, including Washington, allow parents wide latitude in skipping the vaccine. The Washington legislature is now rethinking that._x000D_
+"Thankfully, we live in a highly immunized community," Julie Pryde, administrator of the Champaign-Urbana Public Health District, told the local News-Gazette. "That's why it doesn't go wild like a brush fire."_x000D_
+Watching plump, pure baby flesh pierced and feeling trepidation about how the child's system will react can be legitimately nerve-wracking for a parent. That's no license to avoid a medical necessity that protects child and community. The right to resist comes with a corresponding responsibility to back up that impulse with rigorous research._x000D_
+Once more: Both studies that purported to find a link between vaccines and autism have been thoroughly discredited. There is no evidence connecting the two._x000D_
+Seeking a second opinion may sometimes be wise. Opting out of sound medicine and public health policy in favor of conspiracy theories is not._x000D_
+"All school-children who have not yet had a measles immunization should beg their parents to arrange for them to have one as soon as possible," children's author Roald Dahl wrote in a 1980s essay promoting vaccination. His daughter Olivia, to whom he dedicated "James and the Giant Peach," died of measles-induced encephalitis at age 7._x000D_
+Dahl was onto something. Illinois is among states that allow "mature minors" a voice in their own medical care. Children of anti-vax parents are visiting websites like Reddit to seek advice on how to get vaccines all by themselves._x000D_
+Now that's some healthy skepticism of unwise parenting._x000D_
+February 10, 2019_x000D_
+The (Champaign) News-Gazette_x000D_
+Illinois is betting big that gambling is an unadulterated good._x000D_
+Change is coming to Illinois a higher minimum wage first, soon to be followed by the legalization of marijuana._x000D_
+Then there is sports gambling, which is an option due to a ruling last year by the U.S. Supreme Court. In addition to action in many of the 50 states, federal legislation may be forthcoming._x000D_
+Illinois, of course, is already up to its neck in legalized gambling that includes casinos, video gambling, the lottery and race tracks. Those activities generate substantial income, but not as much as some predicted. Further, it seems that placing video-gambling parlors on virtually every street corner is diminishing the amount of gambling that once was done at the state's 10 casinos._x000D_
+Sports betting would be a whole new wrinkle on the gambling front, a government-overseen entertainment that would replace an illegal underground marketplace._x000D_
+A recent study indicates that legalized gambling in Illinois would generate $12 billion in wagers, create 2,500 jobs and generate up to $100 million in tax revenue._x000D_
+The authors of the study have their reasons for making that assessment._x000D_
+But one ought to be careful about embracing predictions on a practice that is still a gleam in the eye of the revenue-hungry Gov. J.B. Pritzker and members of the General Assembly._x000D_
+Further, it's important not to get caught up in the rush to pass legislation._x000D_
+Ever since the Supreme Court ruling, gambling hustlers have been urging legislators in Illinois and other states to be among the first to pass legislation allowing sports gambling._x000D_
+The theory is that those who strike first will reap the largest rewards._x000D_
+There is merit to swift action, but not at the expense of making careful and thoughtful decisions about what's to be done._x000D_
+Legislation authorizing casino gambling was rushed to passage, as was that creating the video-gambling frenzy. In retrospect, it looks as though state officials would have been better served to adopt a more deliberate and careful approach._x000D_
+Instead, they acted in haste, and, as various reports have suggested, now repent in leisure._x000D_
+The state has, historically, had a hard time passing gambling legislation because it turns into a scrum of conflicting interests, all of whom are looking to get rich at the others' expense._x000D_
+Further, those who gained gambling privileges in one round of legislation take the casino owners vigorously resist proposals for new venues that would compete with their existing venues._x000D_
+Does anyone think that the owners of casinos in Joliet and Des Plaines want to see another casino or two or three in Chicago? Absolutely not, and they're willing to spread plenty of money around in campaign donations or other forms of remuneration to see that it doesn't happen._x000D_
+Adding sports betting to the gambling field ensures a major conflagration. But the impending battle will be less about the specifics of operations than it will be about who makes the big money from this new business._x000D_
+Illinois is a huge state that has the capacity to make sports-book owners a whole lot of money. But which ones will it be? And what will the cost of the entry fee for those competing for the privilege of taking gamblers' money?_x000D_
+Ten states already have legalized sports gambling, none of them in the Midwest._x000D_
+If Illinois follows, it will be a game-changer in terms of social mores, one not necessarily for the better. People will just have to wait and see what follows._x000D_
+But don't buy the hype that another expansion of gambling will represent some kind of financial panacea for our financially challenged state._x000D_
+Legal gambling generates revenue, but it also generates costs, including a fraying of the social fabric of society. After all, everyone can't be a winner._x000D_
+February 10, 2019_x000D_
+(Decatur) Herald &amp;amp; Review_x000D_
+We support legalizing marijuana. Here are the hurdles we see._x000D_
+The climate is right._x000D_
+High on the list of changes planned by Gov. J.B. Pritzker is the state-wide legalization of recreational marijuana. The timing for this legislation is even more favorable now than before the election._x000D_
+Legalizing marijuana has been tried and tested by states before Illinois. There are substantial benefits that could help the state navigate budget problems and funding issues. It has the potential to infuse revenue at the ground level, as the retail market develops and helps stimulate the local economy. It has a proven record of reducing the impact of the opioid epidemic._x000D_
+In November, the Illinois Economic Policy Institute published "The Financial Impact of Legalizing Marijuana in Illinois." The report noted taxation and regulation of marijuana in Illinois could create nearly 24,000 new jobs. Legalization would boost the state's economy by $1 billion per year and generate in excess of $500 million in new state and local tax revenue._x000D_
+One of the most compelling reasons to move forward with legislation is the impact it has on the opioid crisis. According to the Center for Disease Control, deaths attributed to opioid overdose totaled 70,237 nationwide in 2017. In Illinois, there were 2,778 in 2017, which followed 2,411 in 2016 and 1,835 in 2015. In states that have already legalized marijuana for recreation, the number of opioid deaths is dropping. In some states, fatalities have fallen as much as 33 percent. It's a number we have to take seriously._x000D_
+The climate is right in Illinois to take the next step in marijuana legalization, but that alone doesn't warrant charging ahead blindly. With other states having gone before us, there is no excuse for not moving methodically and purposefully in preparing to make this significant change. There is time to do it right._x000D_
+Though Gov. Pritzker has made it clear that revenue through taxes is a priority, the predominance of the plan seems to focus on creating opportunities for minority businesses and benefits to communities affected by drug crime. There does not seem to be, however, a thorough analysis pondering through what system that revenue stream is built. If economics is one of the key reasons justifying legalization, that's a question that needs to be addressed sooner rather than later._x000D_
+The process of legalizing a once illegal substance is challenging. It does not just involve taxes and licenses. It requires a transition from a pre-legal state to a post-legal one. Going from a high demand-high cost product with minimal market infrastructure to a lower demand-lower cost product once the market develops and stabilizes._x000D_
+Colorado gained initial revenue simply by being a pioneer in legalization. As the market stabilized, production costs came down, reducing the tax revenue with it. California, meanwhile, taxes both by weight and by prices, leaving at least part of the revenue not dependent upon supply or increased demand to drive tax revenue up._x000D_
+As a state, we're closer than we've ever been to legalized recreational marijuana. There are plenty of reasons to proceed, and plenty of reasons we should answer some important implementation questions before we finalize it._x000D_
+Copyright 2019 The Associated Press. All rights reserved. This material may not be published, broadcast, rewritten or redistributed.</t>
+  </si>
+  <si>
+    <t>LITTLE ROCK, Ark. (AP) The Arkansas Arts Center will move into a former Walmart in Little Rock while the downtown museum gets a nearly $99 million makeover._x000D_
+Museum officials said Monday that the old Walmart Neighborhood Market will begin housing its staff, art classes and children's theater rehearsals in September. The Arkansas Democrat-Gazette reports that the move comes about a month before crews are scheduled to break ground on the center's more than two-year renovation project._x000D_
+The museum's nonprofit foundation didn't disclose the lease terms._x000D_
+The museum's interim executive director, Laine Harber, says the deal allows the center to keep staff employed, maintain daily programming and continue museum school classes for its roughly 3,000 students._x000D_
+The museum in November announced a partnership with the Central Arkansas Library System to display some of its artwork._x000D_
+Information from: Arkansas Democrat-Gazette, http://www.arkansasonline.com_x000D_
+Copyright 2019 The Associated Press. All rights reserved. This material may not be published, broadcast, rewritten or redistributed.</t>
+  </si>
+  <si>
+    <t>Anyone who's used a traditional WiFi extender will know that you sometimes need to manually switch your devices to the extender's own WiFi network when you're too far from your main WiFi router. That's mostly because WiFi extenders have their own network name that's slightly different to your main WiFi network's name. For example, an extender's network name might be your main network's name with the letters "EXT" tagged on, to indicate that it's your extender's WiFi network. _x000D_
+ Mesh systems like Eero, on the other hand, help your devices automatically switch to the nearest Eero, and each Eero broadcasts the same WiFi network name. _x000D_
+ Eero will also automatically connect your devices to the appropriate WiFi band — 2.4GHz and 5Ghz — depending on their needs. If your devices need better range, Eero will automatically connect your devices to the longer-range 2.4GHz band. If you're close enough to an Eero router, it'll connect your devices to the 5GHz band, which offers faster speeds, but has less range than the 2.4GHz band. _x000D_
+ To be fair, some recent extenders give options to keep your main WiFi network's name and bands to make switching easier and automatic. At the same time, you might need to go into the extender's settings to enable that feature, which can be complicated for a lot of users.</t>
+  </si>
+  <si>
+    <t>CEO confidence has been flat since Federal Reserve Chairman Jerome Powell announced last month that the agency would be "patient" in determining future interest rate hikes, IBM's Ginni Rometty told CNBC Tuesday._x000D_
+div &amp;gt; div.group &amp;gt; p:first-child"&amp;gt;_x000D_
+"I think it's been fairly steady and I hear from all of my colleagues that everyone is still planning ... both ways" whether for "growth or efficiency," Rometty said on "Squawk on the Street" during a sit down with CNBC's Jon Fortt from the Think 2019 conference in San Francisco._x000D_
+Many investors have been uncertain about the prospects of the markets this year. Some are bracing for the bull rally to continue running while others are preparing for stocks to fall the other way. Earlier last month, Powell said the central bank would keep an eye on economic growth throughout the year and adjust monetary policy if growth slows._x000D_
+That's left Wall Street watchers and company executives in limbo, who are adjusting their own plans to Fed policy. Markets began to swing up after Powell's comments, but CEO sentiment has remained the same, said Rometty, who is also chair and president of IBM._x000D_
+"Over a curve over time ... you would've seen more toward the growth side," she said. But "I see that balance now between growth and efficiency initiatives and I actually see that staying very firm."_x000D_
+Rometty also announced that IBM would open its Watson artificial intelligence service to all cloud platforms, not just IBM's cloud. The move will give IBM customers capability to manage and run data under the clouds run by providers like Microsoft and Amazon._x000D_
+"Watson can run on your premise it can run on any cloud and it can connect between them," Rometty said. "This is a big piece not just of Watson a big piece of hybrid cloud," she said, referring to the idea of mixing on-premises software with services from multiple cloud providers. "We think that's a trillion dollar market and we'll be number 1 in it."_x000D_
+Shares of IBM are trading about 1.4 percent higher as of midday. The stock is up almost 20 percent this year.</t>
+  </si>
+  <si>
+    <t>Thomas Kurian, the new CEO of Google Cloud, says that the search giant is revamping its strategy a little bit as it chases after the market-leading Amazon Web Services. _x000D_
+ Rather than focus on so-called digital native companies — largely startups that began their lives in the cloud — Google Cloud is going to go after established companies in established industries like retail or finance. _x000D_
+ "Historically, people have thought Google has a strong presence in the digital native community," Kurian said onstage. "Over the last 12 months, we've shifted our strategy to go after more traditional industries...You will see us continue to focus our go-to-market effort in going after the largest customers." _x000D_
+ Kurian's remarks — his first since replacing Diane Greene as CEO in January— came at the Goldman Sachs Technology and Internet Conference on Tuesday. Kurian came to Google following a long career at Oracle. _x000D_
+ Kurian says that he plans to "significantly" expand Google Cloud's sales teams, and train them to target traditional industries like retail, manufacturing, automotive, finance, and others. _x000D_
+ "We're going to specialize our sales team to talk to specific industries in the language of the industry," Kurian said. "You will see us competing much more aggressively going forward," he continued. _x000D_
+ Similarly, Kurian plans on expanding Google Cloud's customer support teams — potentially fixing a major customer complaint with the platform. _x000D_
+ "In order to serve a large corporation well, it's important for those organizations to have a person to talk to," Kurian said. _x000D_
+Read more:Startup execs were shocked when Diane Greene left Google Cloud, and they say new boss Thomas Kurian has his work cut out for him_x000D_
+ More broadly, Kurian says, Google Cloud is taking a new philisophy called "Customers for Life." This involves not only acquiring and retaining customers, but converting them into advocates for Google Cloud. _x000D_
+ Right now, Google Cloud is considered the number 3 cloud on the market, lagging behind Amazon Web Services and Microsoft Azure. Analysts say Google needs to step up its ability to sell into the largest customers. Kurian's gameplan here could help plug that gap and make it more competitive, as he inherits _x000D_
+ At the same time, though, Kurian says that customers believe that Google Cloud has come a long way — and that it still has a competitive edge. _x000D_
+ "I talked to the largest customers and asked, 'Why did you choose Google?' Kurian said. "Uniformly, the feedback I got was, 'It's by far the best technology in the market.'" _x000D_
+ Meanwhile, Google Cloud is already working to acquire prominent customers. Last week, Google Cloud partnership with the Golden State Warriors on Wednesday to bring advanced data analytics to the franchise. Insiders also say that Kurian is likely to lead Google Cloud in making aggressive acquisitions.</t>
+  </si>
+  <si>
+    <t>The transportation data firm INRIX Research released on Tuesday its annual rankings of the most congested cities in the world. _x000D_
+ The company measured the amount of time lost per capita in 2018 due to the difference between traffic at the busiest and least busy commuting times each day. Cities were ranked based on delays caused by congestion, adjusted for each city's population. _x000D_
+ Moscow was named the most congested city in the world for the second year in a row, and Europe had more cities in the top-20 than any other continent. _x000D_
+ These are the most congested cities in the world.</t>
   </si>
 </sst>
 </file>
@@ -5165,7 +4983,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H165"/>
+  <dimension ref="A1:H160"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -5196,2263 +5014,2257 @@
     </row>
     <row r="2" spans="1:8">
       <c r="A2" s="1">
-        <v>130</v>
+        <v>24</v>
       </c>
       <c r="B2">
-        <v>131</v>
+        <v>25</v>
       </c>
       <c r="C2" t="s">
         <v>7</v>
       </c>
       <c r="D2" t="s">
-        <v>155</v>
+        <v>151</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>298</v>
+        <v>290</v>
       </c>
       <c r="F2" t="s">
-        <v>459</v>
+        <v>446</v>
       </c>
       <c r="G2" s="3">
-        <v>43507.75586805555</v>
+        <v>43507.79184027778</v>
       </c>
       <c r="H2" t="s">
-        <v>477</v>
+        <v>464</v>
       </c>
     </row>
     <row r="3" spans="1:8">
       <c r="A3" s="1">
-        <v>149</v>
+        <v>13</v>
       </c>
       <c r="B3">
-        <v>150</v>
+        <v>14</v>
       </c>
       <c r="C3" t="s">
         <v>8</v>
       </c>
       <c r="D3" t="s">
-        <v>156</v>
+        <v>152</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>299</v>
+        <v>291</v>
       </c>
       <c r="F3" t="s">
-        <v>460</v>
+        <v>447</v>
       </c>
       <c r="G3" s="3">
-        <v>43507.75712962963</v>
+        <v>43507.79236111111</v>
       </c>
       <c r="H3" t="s">
-        <v>478</v>
+        <v>465</v>
       </c>
     </row>
     <row r="4" spans="1:8">
       <c r="A4" s="1">
-        <v>87</v>
+        <v>152</v>
       </c>
       <c r="B4">
-        <v>88</v>
+        <v>153</v>
       </c>
       <c r="C4" t="s">
         <v>9</v>
       </c>
       <c r="D4" t="s">
-        <v>157</v>
+        <v>153</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>300</v>
+        <v>292</v>
       </c>
       <c r="F4" t="s">
-        <v>461</v>
+        <v>448</v>
       </c>
       <c r="G4" s="3">
-        <v>43507.75833333333</v>
+        <v>43507.79918981482</v>
       </c>
       <c r="H4" t="s">
-        <v>479</v>
+        <v>466</v>
       </c>
     </row>
     <row r="5" spans="1:8">
       <c r="A5" s="1">
-        <v>41</v>
+        <v>112</v>
       </c>
       <c r="B5">
-        <v>42</v>
+        <v>113</v>
       </c>
       <c r="C5" t="s">
         <v>10</v>
       </c>
       <c r="D5" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>301</v>
+        <v>293</v>
       </c>
       <c r="F5" t="s">
-        <v>461</v>
+        <v>449</v>
       </c>
       <c r="G5" s="3">
-        <v>43507.76111111111</v>
+        <v>43507.80636574074</v>
       </c>
       <c r="H5" t="s">
-        <v>480</v>
+        <v>467</v>
       </c>
     </row>
     <row r="6" spans="1:8">
       <c r="A6" s="1">
-        <v>126</v>
+        <v>50</v>
       </c>
       <c r="B6">
-        <v>127</v>
+        <v>51</v>
       </c>
       <c r="C6" t="s">
         <v>11</v>
       </c>
       <c r="D6" t="s">
-        <v>159</v>
+        <v>155</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>302</v>
+        <v>294</v>
       </c>
       <c r="F6" t="s">
-        <v>462</v>
+        <v>449</v>
       </c>
       <c r="G6" s="3">
-        <v>43507.76527777778</v>
+        <v>43507.81208333333</v>
       </c>
       <c r="H6" t="s">
-        <v>481</v>
+        <v>468</v>
       </c>
     </row>
     <row r="7" spans="1:8">
       <c r="A7" s="1">
-        <v>69</v>
+        <v>117</v>
       </c>
       <c r="B7">
-        <v>70</v>
+        <v>118</v>
       </c>
       <c r="C7" t="s">
         <v>12</v>
       </c>
       <c r="D7" t="s">
-        <v>160</v>
+        <v>156</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>303</v>
+        <v>295</v>
       </c>
       <c r="F7" t="s">
-        <v>463</v>
+        <v>449</v>
       </c>
       <c r="G7" s="3">
-        <v>43507.76575231482</v>
+        <v>43507.81873842593</v>
       </c>
       <c r="H7" t="s">
-        <v>482</v>
+        <v>469</v>
       </c>
     </row>
     <row r="8" spans="1:8">
       <c r="A8" s="1">
-        <v>110</v>
+        <v>35</v>
       </c>
       <c r="B8">
-        <v>111</v>
+        <v>36</v>
       </c>
       <c r="C8" t="s">
         <v>13</v>
       </c>
       <c r="D8" t="s">
-        <v>161</v>
+        <v>157</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>304</v>
+        <v>296</v>
       </c>
       <c r="F8" t="s">
-        <v>464</v>
+        <v>449</v>
       </c>
       <c r="G8" s="3">
-        <v>43507.77275462963</v>
+        <v>43507.8322800926</v>
       </c>
       <c r="H8" t="s">
-        <v>483</v>
+        <v>470</v>
       </c>
     </row>
     <row r="9" spans="1:8">
       <c r="A9" s="1">
-        <v>109</v>
+        <v>86</v>
       </c>
       <c r="B9">
-        <v>110</v>
+        <v>87</v>
       </c>
       <c r="C9" t="s">
-        <v>13</v>
-      </c>
-      <c r="D9" t="s">
-        <v>161</v>
+        <v>14</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>305</v>
+        <v>297</v>
       </c>
       <c r="F9" t="s">
-        <v>464</v>
+        <v>450</v>
       </c>
       <c r="G9" s="3">
-        <v>43507.77275462963</v>
+        <v>43507.83472222222</v>
       </c>
       <c r="H9" t="s">
-        <v>484</v>
+        <v>471</v>
       </c>
     </row>
     <row r="10" spans="1:8">
       <c r="A10" s="1">
-        <v>129</v>
+        <v>140</v>
       </c>
       <c r="B10">
-        <v>130</v>
+        <v>141</v>
       </c>
       <c r="C10" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D10" t="s">
-        <v>162</v>
+        <v>158</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>306</v>
+        <v>298</v>
       </c>
       <c r="F10" t="s">
-        <v>459</v>
+        <v>449</v>
       </c>
       <c r="G10" s="3">
-        <v>43507.77335648148</v>
+        <v>43507.83501157408</v>
       </c>
       <c r="H10" t="s">
-        <v>485</v>
+        <v>472</v>
       </c>
     </row>
     <row r="11" spans="1:8">
       <c r="A11" s="1">
-        <v>96</v>
+        <v>153</v>
       </c>
       <c r="B11">
-        <v>97</v>
+        <v>154</v>
       </c>
       <c r="C11" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D11" t="s">
-        <v>163</v>
+        <v>159</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>307</v>
+        <v>299</v>
       </c>
       <c r="F11" t="s">
-        <v>462</v>
+        <v>451</v>
       </c>
       <c r="G11" s="3">
-        <v>43507.77847222222</v>
+        <v>43507.84344907408</v>
       </c>
       <c r="H11" t="s">
-        <v>486</v>
+        <v>473</v>
       </c>
     </row>
     <row r="12" spans="1:8">
       <c r="A12" s="1">
+        <v>90</v>
+      </c>
+      <c r="B12">
+        <v>91</v>
+      </c>
+      <c r="C12" t="s">
         <v>17</v>
       </c>
-      <c r="B12">
-        <v>18</v>
-      </c>
-      <c r="C12" t="s">
-        <v>16</v>
-      </c>
       <c r="D12" t="s">
-        <v>164</v>
+        <v>160</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>308</v>
+        <v>300</v>
       </c>
       <c r="F12" t="s">
-        <v>464</v>
+        <v>450</v>
       </c>
       <c r="G12" s="3">
-        <v>43507.78472222222</v>
+        <v>43507.84513888889</v>
       </c>
       <c r="H12" t="s">
-        <v>487</v>
+        <v>474</v>
       </c>
     </row>
     <row r="13" spans="1:8">
       <c r="A13" s="1">
-        <v>40</v>
+        <v>146</v>
       </c>
       <c r="B13">
-        <v>41</v>
+        <v>147</v>
       </c>
       <c r="C13" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D13" t="s">
-        <v>165</v>
+        <v>161</v>
       </c>
       <c r="E13" s="2" t="s">
-        <v>309</v>
+        <v>301</v>
       </c>
       <c r="F13" t="s">
-        <v>460</v>
+        <v>450</v>
       </c>
       <c r="G13" s="3">
-        <v>43507.78853009259</v>
+        <v>43507.84861111111</v>
       </c>
       <c r="H13" t="s">
-        <v>488</v>
+        <v>475</v>
       </c>
     </row>
     <row r="14" spans="1:8">
       <c r="A14" s="1">
-        <v>25</v>
+        <v>118</v>
       </c>
       <c r="B14">
-        <v>26</v>
+        <v>119</v>
       </c>
       <c r="C14" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D14" t="s">
-        <v>166</v>
+        <v>162</v>
       </c>
       <c r="E14" s="2" t="s">
-        <v>310</v>
+        <v>302</v>
       </c>
       <c r="F14" t="s">
-        <v>465</v>
+        <v>452</v>
       </c>
       <c r="G14" s="3">
-        <v>43507.79184027778</v>
+        <v>43507.86737268518</v>
       </c>
       <c r="H14" t="s">
-        <v>489</v>
+        <v>476</v>
       </c>
     </row>
     <row r="15" spans="1:8">
       <c r="A15" s="1">
-        <v>13</v>
+        <v>122</v>
       </c>
       <c r="B15">
-        <v>14</v>
+        <v>123</v>
       </c>
       <c r="C15" t="s">
         <v>19</v>
       </c>
       <c r="D15" t="s">
-        <v>167</v>
+        <v>162</v>
       </c>
       <c r="E15" s="2" t="s">
-        <v>311</v>
+        <v>302</v>
       </c>
       <c r="F15" t="s">
-        <v>464</v>
+        <v>452</v>
       </c>
       <c r="G15" s="3">
-        <v>43507.79236111111</v>
+        <v>43507.86737268518</v>
       </c>
       <c r="H15" t="s">
-        <v>490</v>
+        <v>477</v>
       </c>
     </row>
     <row r="16" spans="1:8">
       <c r="A16" s="1">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="B16">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="C16" t="s">
         <v>20</v>
       </c>
       <c r="D16" t="s">
-        <v>168</v>
+        <v>163</v>
       </c>
       <c r="E16" s="2" t="s">
-        <v>312</v>
+        <v>303</v>
       </c>
       <c r="F16" t="s">
-        <v>466</v>
+        <v>447</v>
       </c>
       <c r="G16" s="3">
-        <v>43507.79918981482</v>
+        <v>43507.86875</v>
       </c>
       <c r="H16" t="s">
-        <v>491</v>
+        <v>478</v>
       </c>
     </row>
     <row r="17" spans="1:8">
       <c r="A17" s="1">
-        <v>115</v>
+        <v>109</v>
       </c>
       <c r="B17">
-        <v>116</v>
+        <v>110</v>
       </c>
       <c r="C17" t="s">
         <v>21</v>
       </c>
       <c r="D17" t="s">
-        <v>169</v>
+        <v>164</v>
       </c>
       <c r="E17" s="2" t="s">
-        <v>313</v>
+        <v>304</v>
       </c>
       <c r="F17" t="s">
-        <v>459</v>
+        <v>452</v>
       </c>
       <c r="G17" s="3">
-        <v>43507.80636574074</v>
+        <v>43507.87145833333</v>
       </c>
       <c r="H17" t="s">
-        <v>492</v>
+        <v>479</v>
       </c>
     </row>
     <row r="18" spans="1:8">
       <c r="A18" s="1">
-        <v>51</v>
+        <v>20</v>
       </c>
       <c r="B18">
-        <v>52</v>
+        <v>21</v>
       </c>
       <c r="C18" t="s">
         <v>22</v>
       </c>
-      <c r="D18" t="s">
-        <v>170</v>
-      </c>
       <c r="E18" s="2" t="s">
-        <v>314</v>
+        <v>305</v>
       </c>
       <c r="F18" t="s">
-        <v>459</v>
+        <v>446</v>
       </c>
       <c r="G18" s="3">
-        <v>43507.81208333333</v>
-      </c>
-      <c r="H18" t="s">
-        <v>493</v>
+        <v>43507.8803125</v>
       </c>
     </row>
     <row r="19" spans="1:8">
       <c r="A19" s="1">
-        <v>120</v>
+        <v>80</v>
       </c>
       <c r="B19">
-        <v>121</v>
+        <v>81</v>
       </c>
       <c r="C19" t="s">
         <v>23</v>
       </c>
       <c r="D19" t="s">
-        <v>171</v>
+        <v>165</v>
       </c>
       <c r="E19" s="2" t="s">
-        <v>315</v>
+        <v>306</v>
       </c>
       <c r="F19" t="s">
-        <v>459</v>
+        <v>453</v>
       </c>
       <c r="G19" s="3">
-        <v>43507.81873842593</v>
+        <v>43507.881875</v>
       </c>
       <c r="H19" t="s">
-        <v>494</v>
+        <v>480</v>
       </c>
     </row>
     <row r="20" spans="1:8">
       <c r="A20" s="1">
-        <v>34</v>
+        <v>69</v>
       </c>
       <c r="B20">
-        <v>35</v>
+        <v>70</v>
       </c>
       <c r="C20" t="s">
         <v>24</v>
       </c>
       <c r="D20" t="s">
-        <v>172</v>
+        <v>166</v>
       </c>
       <c r="E20" s="2" t="s">
-        <v>316</v>
+        <v>307</v>
       </c>
       <c r="F20" t="s">
-        <v>459</v>
+        <v>454</v>
       </c>
       <c r="G20" s="3">
-        <v>43507.8322800926</v>
+        <v>43507.88503472223</v>
       </c>
       <c r="H20" t="s">
-        <v>495</v>
+        <v>481</v>
       </c>
     </row>
     <row r="21" spans="1:8">
       <c r="A21" s="1">
-        <v>86</v>
+        <v>8</v>
       </c>
       <c r="B21">
-        <v>87</v>
+        <v>9</v>
       </c>
       <c r="C21" t="s">
         <v>25</v>
       </c>
+      <c r="D21" t="s">
+        <v>167</v>
+      </c>
       <c r="E21" s="2" t="s">
-        <v>317</v>
+        <v>308</v>
       </c>
       <c r="F21" t="s">
-        <v>462</v>
+        <v>447</v>
       </c>
       <c r="G21" s="3">
-        <v>43507.83472222222</v>
+        <v>43507.88958333333</v>
       </c>
       <c r="H21" t="s">
-        <v>496</v>
+        <v>482</v>
       </c>
     </row>
     <row r="22" spans="1:8">
       <c r="A22" s="1">
-        <v>145</v>
+        <v>87</v>
       </c>
       <c r="B22">
-        <v>146</v>
+        <v>88</v>
       </c>
       <c r="C22" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="D22" t="s">
-        <v>173</v>
+        <v>166</v>
       </c>
       <c r="E22" s="2" t="s">
-        <v>318</v>
+        <v>309</v>
       </c>
       <c r="F22" t="s">
-        <v>459</v>
+        <v>454</v>
       </c>
       <c r="G22" s="3">
-        <v>43507.83501157408</v>
+        <v>43507.8908912037</v>
       </c>
       <c r="H22" t="s">
-        <v>497</v>
+        <v>481</v>
       </c>
     </row>
     <row r="23" spans="1:8">
       <c r="A23" s="1">
-        <v>158</v>
+        <v>143</v>
       </c>
       <c r="B23">
-        <v>159</v>
+        <v>144</v>
       </c>
       <c r="C23" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D23" t="s">
-        <v>174</v>
+        <v>168</v>
       </c>
       <c r="E23" s="2" t="s">
-        <v>319</v>
+        <v>310</v>
       </c>
       <c r="F23" t="s">
-        <v>461</v>
+        <v>455</v>
       </c>
       <c r="G23" s="3">
-        <v>43507.84344907408</v>
+        <v>43507.89362268519</v>
       </c>
       <c r="H23" t="s">
-        <v>498</v>
+        <v>483</v>
       </c>
     </row>
     <row r="24" spans="1:8">
       <c r="A24" s="1">
-        <v>91</v>
+        <v>98</v>
       </c>
       <c r="B24">
-        <v>92</v>
+        <v>99</v>
       </c>
       <c r="C24" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D24" t="s">
-        <v>175</v>
+        <v>169</v>
       </c>
       <c r="E24" s="2" t="s">
-        <v>320</v>
+        <v>311</v>
       </c>
       <c r="F24" t="s">
-        <v>462</v>
+        <v>450</v>
       </c>
       <c r="G24" s="3">
-        <v>43507.84513888889</v>
+        <v>43507.90069444444</v>
       </c>
       <c r="H24" t="s">
-        <v>499</v>
+        <v>484</v>
       </c>
     </row>
     <row r="25" spans="1:8">
       <c r="A25" s="1">
-        <v>152</v>
+        <v>102</v>
       </c>
       <c r="B25">
-        <v>153</v>
+        <v>103</v>
       </c>
       <c r="C25" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D25" t="s">
-        <v>176</v>
+        <v>170</v>
       </c>
       <c r="E25" s="2" t="s">
-        <v>321</v>
+        <v>312</v>
       </c>
       <c r="F25" t="s">
-        <v>462</v>
+        <v>447</v>
       </c>
       <c r="G25" s="3">
-        <v>43507.84861111111</v>
+        <v>43507.90329861111</v>
       </c>
       <c r="H25" t="s">
-        <v>500</v>
+        <v>485</v>
       </c>
     </row>
     <row r="26" spans="1:8">
       <c r="A26" s="1">
-        <v>125</v>
+        <v>154</v>
       </c>
       <c r="B26">
-        <v>126</v>
+        <v>155</v>
       </c>
       <c r="C26" t="s">
-        <v>30</v>
-      </c>
-      <c r="D26" t="s">
-        <v>177</v>
+        <v>29</v>
       </c>
       <c r="E26" s="2" t="s">
-        <v>322</v>
+        <v>313</v>
       </c>
       <c r="F26" t="s">
-        <v>467</v>
+        <v>446</v>
       </c>
       <c r="G26" s="3">
-        <v>43507.86737268518</v>
-      </c>
-      <c r="H26" t="s">
-        <v>501</v>
+        <v>43507.91075231481</v>
       </c>
     </row>
     <row r="27" spans="1:8">
       <c r="A27" s="1">
-        <v>121</v>
+        <v>104</v>
       </c>
       <c r="B27">
-        <v>122</v>
+        <v>105</v>
       </c>
       <c r="C27" t="s">
         <v>30</v>
       </c>
       <c r="D27" t="s">
-        <v>177</v>
+        <v>171</v>
       </c>
       <c r="E27" s="2" t="s">
-        <v>322</v>
+        <v>314</v>
       </c>
       <c r="F27" t="s">
-        <v>467</v>
+        <v>456</v>
       </c>
       <c r="G27" s="3">
-        <v>43507.86737268518</v>
+        <v>43507.91385416667</v>
       </c>
       <c r="H27" t="s">
-        <v>502</v>
+        <v>486</v>
       </c>
     </row>
     <row r="28" spans="1:8">
       <c r="A28" s="1">
-        <v>163</v>
+        <v>95</v>
       </c>
       <c r="B28">
-        <v>164</v>
+        <v>96</v>
       </c>
       <c r="C28" t="s">
         <v>31</v>
       </c>
-      <c r="D28" t="s">
-        <v>178</v>
-      </c>
       <c r="E28" s="2" t="s">
-        <v>323</v>
+        <v>315</v>
       </c>
       <c r="F28" t="s">
-        <v>464</v>
+        <v>450</v>
       </c>
       <c r="G28" s="3">
-        <v>43507.86875</v>
+        <v>43507.91388888889</v>
       </c>
       <c r="H28" t="s">
-        <v>503</v>
+        <v>487</v>
       </c>
     </row>
     <row r="29" spans="1:8">
       <c r="A29" s="1">
-        <v>112</v>
+        <v>48</v>
       </c>
       <c r="B29">
-        <v>113</v>
+        <v>49</v>
       </c>
       <c r="C29" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D29" t="s">
-        <v>179</v>
+        <v>172</v>
       </c>
       <c r="E29" s="2" t="s">
-        <v>324</v>
+        <v>316</v>
       </c>
       <c r="F29" t="s">
-        <v>467</v>
+        <v>450</v>
       </c>
       <c r="G29" s="3">
-        <v>43507.87145833333</v>
+        <v>43507.91388888889</v>
       </c>
       <c r="H29" t="s">
-        <v>504</v>
+        <v>488</v>
       </c>
     </row>
     <row r="30" spans="1:8">
       <c r="A30" s="1">
-        <v>21</v>
+        <v>6</v>
       </c>
       <c r="B30">
-        <v>22</v>
+        <v>7</v>
       </c>
       <c r="C30" t="s">
-        <v>33</v>
+        <v>32</v>
+      </c>
+      <c r="D30" t="s">
+        <v>173</v>
       </c>
       <c r="E30" s="2" t="s">
-        <v>325</v>
+        <v>317</v>
       </c>
       <c r="F30" t="s">
-        <v>465</v>
+        <v>447</v>
       </c>
       <c r="G30" s="3">
-        <v>43507.8803125</v>
+        <v>43507.91857638889</v>
+      </c>
+      <c r="H30" t="s">
+        <v>489</v>
       </c>
     </row>
     <row r="31" spans="1:8">
       <c r="A31" s="1">
-        <v>82</v>
+        <v>147</v>
       </c>
       <c r="B31">
-        <v>83</v>
+        <v>148</v>
       </c>
       <c r="C31" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D31" t="s">
-        <v>180</v>
+        <v>174</v>
       </c>
       <c r="E31" s="2" t="s">
-        <v>326</v>
+        <v>318</v>
       </c>
       <c r="F31" t="s">
-        <v>468</v>
+        <v>452</v>
       </c>
       <c r="G31" s="3">
-        <v>43507.881875</v>
+        <v>43507.91961805556</v>
       </c>
       <c r="H31" t="s">
-        <v>505</v>
+        <v>490</v>
       </c>
     </row>
     <row r="32" spans="1:8">
       <c r="A32" s="1">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="B32">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="C32" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D32" t="s">
-        <v>181</v>
+        <v>175</v>
       </c>
       <c r="E32" s="2" t="s">
-        <v>327</v>
+        <v>319</v>
       </c>
       <c r="F32" t="s">
-        <v>469</v>
+        <v>454</v>
       </c>
       <c r="G32" s="3">
-        <v>43507.88503472223</v>
+        <v>43507.92503472222</v>
       </c>
       <c r="H32" t="s">
-        <v>506</v>
+        <v>491</v>
       </c>
     </row>
     <row r="33" spans="1:8">
       <c r="A33" s="1">
-        <v>8</v>
+        <v>148</v>
       </c>
       <c r="B33">
-        <v>9</v>
+        <v>149</v>
       </c>
       <c r="C33" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="D33" t="s">
-        <v>182</v>
+        <v>175</v>
       </c>
       <c r="E33" s="2" t="s">
-        <v>328</v>
+        <v>320</v>
       </c>
       <c r="F33" t="s">
-        <v>464</v>
+        <v>454</v>
       </c>
       <c r="G33" s="3">
-        <v>43507.88958333333</v>
+        <v>43507.92710648148</v>
       </c>
       <c r="H33" t="s">
-        <v>507</v>
+        <v>491</v>
       </c>
     </row>
     <row r="34" spans="1:8">
       <c r="A34" s="1">
-        <v>88</v>
+        <v>64</v>
       </c>
       <c r="B34">
-        <v>89</v>
+        <v>65</v>
       </c>
       <c r="C34" t="s">
         <v>35</v>
       </c>
       <c r="D34" t="s">
-        <v>181</v>
+        <v>176</v>
       </c>
       <c r="E34" s="2" t="s">
-        <v>329</v>
+        <v>321</v>
       </c>
       <c r="F34" t="s">
-        <v>469</v>
+        <v>457</v>
       </c>
       <c r="G34" s="3">
-        <v>43507.8908912037</v>
+        <v>43507.92952546296</v>
       </c>
       <c r="H34" t="s">
-        <v>506</v>
+        <v>492</v>
       </c>
     </row>
     <row r="35" spans="1:8">
       <c r="A35" s="1">
-        <v>148</v>
+        <v>85</v>
       </c>
       <c r="B35">
-        <v>149</v>
+        <v>86</v>
       </c>
       <c r="C35" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="D35" t="s">
-        <v>183</v>
+        <v>175</v>
       </c>
       <c r="E35" s="2" t="s">
-        <v>330</v>
+        <v>322</v>
       </c>
       <c r="F35" t="s">
-        <v>460</v>
+        <v>454</v>
       </c>
       <c r="G35" s="3">
-        <v>43507.89362268519</v>
+        <v>43507.93028935185</v>
       </c>
       <c r="H35" t="s">
-        <v>508</v>
+        <v>493</v>
       </c>
     </row>
     <row r="36" spans="1:8">
       <c r="A36" s="1">
-        <v>100</v>
+        <v>25</v>
       </c>
       <c r="B36">
-        <v>101</v>
+        <v>26</v>
       </c>
       <c r="C36" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="D36" t="s">
-        <v>184</v>
+        <v>177</v>
       </c>
       <c r="E36" s="2" t="s">
-        <v>331</v>
+        <v>323</v>
       </c>
       <c r="F36" t="s">
-        <v>462</v>
+        <v>451</v>
       </c>
       <c r="G36" s="3">
-        <v>43507.90069444444</v>
+        <v>43507.9325</v>
       </c>
       <c r="H36" t="s">
-        <v>509</v>
+        <v>494</v>
       </c>
     </row>
     <row r="37" spans="1:8">
       <c r="A37" s="1">
-        <v>104</v>
+        <v>82</v>
       </c>
       <c r="B37">
-        <v>105</v>
+        <v>83</v>
       </c>
       <c r="C37" t="s">
-        <v>39</v>
-      </c>
-      <c r="D37" t="s">
-        <v>185</v>
+        <v>37</v>
       </c>
       <c r="E37" s="2" t="s">
-        <v>332</v>
+        <v>324</v>
       </c>
       <c r="F37" t="s">
-        <v>464</v>
+        <v>450</v>
       </c>
       <c r="G37" s="3">
-        <v>43507.90329861111</v>
+        <v>43507.93680555555</v>
       </c>
       <c r="H37" t="s">
-        <v>510</v>
+        <v>495</v>
       </c>
     </row>
     <row r="38" spans="1:8">
       <c r="A38" s="1">
-        <v>159</v>
+        <v>18</v>
       </c>
       <c r="B38">
-        <v>160</v>
+        <v>19</v>
       </c>
       <c r="C38" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="E38" s="2" t="s">
-        <v>333</v>
+        <v>325</v>
       </c>
       <c r="F38" t="s">
-        <v>465</v>
+        <v>446</v>
       </c>
       <c r="G38" s="3">
-        <v>43507.91075231481</v>
+        <v>43507.94101851852</v>
       </c>
     </row>
     <row r="39" spans="1:8">
       <c r="A39" s="1">
-        <v>106</v>
+        <v>129</v>
       </c>
       <c r="B39">
-        <v>107</v>
+        <v>130</v>
       </c>
       <c r="C39" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="D39" t="s">
-        <v>186</v>
+        <v>178</v>
       </c>
       <c r="E39" s="2" t="s">
-        <v>334</v>
+        <v>326</v>
       </c>
       <c r="F39" t="s">
-        <v>470</v>
+        <v>458</v>
       </c>
       <c r="G39" s="3">
-        <v>43507.91385416667</v>
+        <v>43507.94236111111</v>
       </c>
       <c r="H39" t="s">
-        <v>511</v>
+        <v>496</v>
       </c>
     </row>
     <row r="40" spans="1:8">
       <c r="A40" s="1">
-        <v>49</v>
+        <v>113</v>
       </c>
       <c r="B40">
-        <v>50</v>
+        <v>114</v>
       </c>
       <c r="C40" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="D40" t="s">
-        <v>187</v>
+        <v>179</v>
       </c>
       <c r="E40" s="2" t="s">
-        <v>335</v>
+        <v>327</v>
       </c>
       <c r="F40" t="s">
-        <v>462</v>
+        <v>452</v>
       </c>
       <c r="G40" s="3">
-        <v>43507.91388888889</v>
+        <v>43507.94572916667</v>
       </c>
       <c r="H40" t="s">
-        <v>512</v>
+        <v>497</v>
       </c>
     </row>
     <row r="41" spans="1:8">
       <c r="A41" s="1">
-        <v>97</v>
+        <v>34</v>
       </c>
       <c r="B41">
-        <v>98</v>
+        <v>35</v>
       </c>
       <c r="C41" t="s">
-        <v>42</v>
+        <v>41</v>
+      </c>
+      <c r="D41" t="s">
+        <v>180</v>
       </c>
       <c r="E41" s="2" t="s">
-        <v>336</v>
+        <v>328</v>
       </c>
       <c r="F41" t="s">
-        <v>462</v>
+        <v>459</v>
       </c>
       <c r="G41" s="3">
-        <v>43507.91388888889</v>
+        <v>43507.95300925926</v>
       </c>
       <c r="H41" t="s">
-        <v>513</v>
+        <v>498</v>
       </c>
     </row>
     <row r="42" spans="1:8">
       <c r="A42" s="1">
-        <v>6</v>
+        <v>116</v>
       </c>
       <c r="B42">
-        <v>7</v>
+        <v>117</v>
       </c>
       <c r="C42" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D42" t="s">
-        <v>188</v>
+        <v>181</v>
       </c>
       <c r="E42" s="2" t="s">
-        <v>337</v>
+        <v>329</v>
       </c>
       <c r="F42" t="s">
-        <v>464</v>
+        <v>451</v>
       </c>
       <c r="G42" s="3">
-        <v>43507.91857638889</v>
+        <v>43507.95899305555</v>
       </c>
       <c r="H42" t="s">
-        <v>514</v>
+        <v>499</v>
       </c>
     </row>
     <row r="43" spans="1:8">
       <c r="A43" s="1">
-        <v>153</v>
+        <v>94</v>
       </c>
       <c r="B43">
-        <v>154</v>
+        <v>95</v>
       </c>
       <c r="C43" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D43" t="s">
-        <v>189</v>
+        <v>182</v>
       </c>
       <c r="E43" s="2" t="s">
-        <v>338</v>
+        <v>330</v>
       </c>
       <c r="F43" t="s">
-        <v>467</v>
+        <v>447</v>
       </c>
       <c r="G43" s="3">
-        <v>43507.91961805556</v>
+        <v>43507.96458333333</v>
       </c>
       <c r="H43" t="s">
-        <v>515</v>
+        <v>500</v>
       </c>
     </row>
     <row r="44" spans="1:8">
       <c r="A44" s="1">
-        <v>70</v>
+        <v>105</v>
       </c>
       <c r="B44">
-        <v>71</v>
+        <v>106</v>
       </c>
       <c r="C44" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D44" t="s">
-        <v>190</v>
+        <v>183</v>
       </c>
       <c r="E44" s="2" t="s">
-        <v>339</v>
+        <v>331</v>
       </c>
       <c r="F44" t="s">
-        <v>469</v>
+        <v>450</v>
       </c>
       <c r="G44" s="3">
-        <v>43507.92503472222</v>
+        <v>43507.96597222222</v>
       </c>
       <c r="H44" t="s">
-        <v>516</v>
+        <v>501</v>
       </c>
     </row>
     <row r="45" spans="1:8">
       <c r="A45" s="1">
-        <v>154</v>
+        <v>110</v>
       </c>
       <c r="B45">
-        <v>155</v>
+        <v>111</v>
       </c>
       <c r="C45" t="s">
         <v>45</v>
       </c>
       <c r="D45" t="s">
-        <v>190</v>
+        <v>184</v>
       </c>
       <c r="E45" s="2" t="s">
-        <v>340</v>
+        <v>332</v>
       </c>
       <c r="F45" t="s">
-        <v>469</v>
+        <v>456</v>
       </c>
       <c r="G45" s="3">
-        <v>43507.92710648148</v>
+        <v>43507.96686342593</v>
       </c>
       <c r="H45" t="s">
-        <v>516</v>
+        <v>502</v>
       </c>
     </row>
     <row r="46" spans="1:8">
       <c r="A46" s="1">
-        <v>65</v>
+        <v>41</v>
       </c>
       <c r="B46">
-        <v>66</v>
+        <v>42</v>
       </c>
       <c r="C46" t="s">
         <v>46</v>
       </c>
       <c r="D46" t="s">
-        <v>191</v>
+        <v>185</v>
       </c>
       <c r="E46" s="2" t="s">
-        <v>341</v>
+        <v>333</v>
       </c>
       <c r="F46" t="s">
-        <v>471</v>
+        <v>449</v>
       </c>
       <c r="G46" s="3">
-        <v>43507.92952546296</v>
+        <v>43507.97644675926</v>
       </c>
       <c r="H46" t="s">
-        <v>517</v>
+        <v>503</v>
       </c>
     </row>
     <row r="47" spans="1:8">
       <c r="A47" s="1">
-        <v>85</v>
+        <v>92</v>
       </c>
       <c r="B47">
-        <v>86</v>
+        <v>93</v>
       </c>
       <c r="C47" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="D47" t="s">
-        <v>190</v>
+        <v>186</v>
       </c>
       <c r="E47" s="2" t="s">
-        <v>342</v>
+        <v>334</v>
       </c>
       <c r="F47" t="s">
-        <v>469</v>
+        <v>460</v>
       </c>
       <c r="G47" s="3">
-        <v>43507.93028935185</v>
+        <v>43507.97703703704</v>
       </c>
       <c r="H47" t="s">
-        <v>518</v>
+        <v>504</v>
       </c>
     </row>
     <row r="48" spans="1:8">
       <c r="A48" s="1">
-        <v>26</v>
+        <v>141</v>
       </c>
       <c r="B48">
-        <v>27</v>
+        <v>142</v>
       </c>
       <c r="C48" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="D48" t="s">
-        <v>192</v>
+        <v>187</v>
       </c>
       <c r="E48" s="2" t="s">
-        <v>343</v>
+        <v>335</v>
       </c>
       <c r="F48" t="s">
-        <v>461</v>
+        <v>449</v>
       </c>
       <c r="G48" s="3">
-        <v>43507.9325</v>
+        <v>43507.98893518518</v>
       </c>
       <c r="H48" t="s">
-        <v>519</v>
+        <v>505</v>
       </c>
     </row>
     <row r="49" spans="1:8">
       <c r="A49" s="1">
-        <v>83</v>
+        <v>49</v>
       </c>
       <c r="B49">
-        <v>84</v>
+        <v>50</v>
       </c>
       <c r="C49" t="s">
-        <v>48</v>
+        <v>49</v>
+      </c>
+      <c r="D49" t="s">
+        <v>188</v>
       </c>
       <c r="E49" s="2" t="s">
-        <v>344</v>
+        <v>336</v>
       </c>
       <c r="F49" t="s">
-        <v>462</v>
+        <v>449</v>
       </c>
       <c r="G49" s="3">
-        <v>43507.93680555555</v>
+        <v>43507.99054398148</v>
       </c>
       <c r="H49" t="s">
-        <v>520</v>
+        <v>506</v>
       </c>
     </row>
     <row r="50" spans="1:8">
       <c r="A50" s="1">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="B50">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="C50" t="s">
-        <v>49</v>
+        <v>50</v>
+      </c>
+      <c r="D50" t="s">
+        <v>189</v>
       </c>
       <c r="E50" s="2" t="s">
-        <v>345</v>
+        <v>337</v>
       </c>
       <c r="F50" t="s">
-        <v>465</v>
+        <v>458</v>
       </c>
       <c r="G50" s="3">
-        <v>43507.94101851852</v>
+        <v>43507.99305555555</v>
+      </c>
+      <c r="H50" t="s">
+        <v>507</v>
       </c>
     </row>
     <row r="51" spans="1:8">
       <c r="A51" s="1">
-        <v>135</v>
+        <v>44</v>
       </c>
       <c r="B51">
-        <v>136</v>
+        <v>45</v>
       </c>
       <c r="C51" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="D51" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="E51" s="2" t="s">
-        <v>346</v>
+        <v>338</v>
       </c>
       <c r="F51" t="s">
-        <v>472</v>
+        <v>457</v>
       </c>
       <c r="G51" s="3">
-        <v>43507.94236111111</v>
+        <v>43507.99777777777</v>
       </c>
       <c r="H51" t="s">
-        <v>521</v>
+        <v>508</v>
       </c>
     </row>
     <row r="52" spans="1:8">
       <c r="A52" s="1">
-        <v>116</v>
+        <v>103</v>
       </c>
       <c r="B52">
-        <v>117</v>
+        <v>104</v>
       </c>
       <c r="C52" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="D52" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
       <c r="E52" s="2" t="s">
-        <v>347</v>
+        <v>339</v>
       </c>
       <c r="F52" t="s">
-        <v>467</v>
+        <v>450</v>
       </c>
       <c r="G52" s="3">
-        <v>43507.94572916667</v>
+        <v>43507.99791666667</v>
       </c>
       <c r="H52" t="s">
-        <v>522</v>
+        <v>509</v>
       </c>
     </row>
     <row r="53" spans="1:8">
       <c r="A53" s="1">
-        <v>33</v>
+        <v>79</v>
       </c>
       <c r="B53">
-        <v>34</v>
+        <v>80</v>
       </c>
       <c r="C53" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="D53" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="E53" s="2" t="s">
-        <v>348</v>
+        <v>340</v>
       </c>
       <c r="F53" t="s">
-        <v>473</v>
+        <v>447</v>
       </c>
       <c r="G53" s="3">
-        <v>43507.95300925926</v>
+        <v>43508</v>
       </c>
       <c r="H53" t="s">
-        <v>523</v>
+        <v>510</v>
       </c>
     </row>
     <row r="54" spans="1:8">
       <c r="A54" s="1">
-        <v>119</v>
+        <v>62</v>
       </c>
       <c r="B54">
-        <v>120</v>
+        <v>63</v>
       </c>
       <c r="C54" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="D54" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="E54" s="2" t="s">
-        <v>349</v>
+        <v>341</v>
       </c>
       <c r="F54" t="s">
-        <v>461</v>
+        <v>447</v>
       </c>
       <c r="G54" s="3">
-        <v>43507.95899305555</v>
+        <v>43508.04162037037</v>
       </c>
       <c r="H54" t="s">
-        <v>524</v>
+        <v>511</v>
       </c>
     </row>
     <row r="55" spans="1:8">
       <c r="A55" s="1">
-        <v>95</v>
+        <v>57</v>
       </c>
       <c r="B55">
-        <v>96</v>
+        <v>58</v>
       </c>
       <c r="C55" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="D55" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c r="E55" s="2" t="s">
-        <v>350</v>
+        <v>342</v>
       </c>
       <c r="F55" t="s">
-        <v>464</v>
+        <v>457</v>
       </c>
       <c r="G55" s="3">
-        <v>43507.96458333333</v>
+        <v>43508.04342592593</v>
       </c>
       <c r="H55" t="s">
-        <v>525</v>
+        <v>512</v>
       </c>
     </row>
     <row r="56" spans="1:8">
       <c r="A56" s="1">
-        <v>107</v>
+        <v>23</v>
       </c>
       <c r="B56">
-        <v>108</v>
+        <v>24</v>
       </c>
       <c r="C56" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="D56" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
       <c r="E56" s="2" t="s">
-        <v>351</v>
+        <v>343</v>
       </c>
       <c r="F56" t="s">
-        <v>462</v>
+        <v>459</v>
       </c>
       <c r="G56" s="3">
-        <v>43507.96597222222</v>
+        <v>43508.05474537037</v>
       </c>
       <c r="H56" t="s">
-        <v>526</v>
+        <v>513</v>
       </c>
     </row>
     <row r="57" spans="1:8">
       <c r="A57" s="1">
-        <v>113</v>
+        <v>4</v>
       </c>
       <c r="B57">
-        <v>114</v>
+        <v>5</v>
       </c>
       <c r="C57" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="D57" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="E57" s="2" t="s">
-        <v>352</v>
+        <v>344</v>
       </c>
       <c r="F57" t="s">
-        <v>470</v>
+        <v>459</v>
       </c>
       <c r="G57" s="3">
-        <v>43507.96686342593</v>
+        <v>43508.06134259259</v>
       </c>
       <c r="H57" t="s">
-        <v>527</v>
+        <v>514</v>
       </c>
     </row>
     <row r="58" spans="1:8">
       <c r="A58" s="1">
-        <v>42</v>
+        <v>5</v>
       </c>
       <c r="B58">
-        <v>43</v>
+        <v>6</v>
       </c>
       <c r="C58" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="D58" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
       <c r="E58" s="2" t="s">
-        <v>353</v>
+        <v>345</v>
       </c>
       <c r="F58" t="s">
         <v>459</v>
       </c>
       <c r="G58" s="3">
-        <v>43507.97644675926</v>
+        <v>43508.06170138889</v>
       </c>
       <c r="H58" t="s">
-        <v>528</v>
+        <v>515</v>
       </c>
     </row>
     <row r="59" spans="1:8">
       <c r="A59" s="1">
-        <v>93</v>
+        <v>142</v>
       </c>
       <c r="B59">
-        <v>94</v>
+        <v>143</v>
       </c>
       <c r="C59" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="D59" t="s">
-        <v>201</v>
+        <v>198</v>
       </c>
       <c r="E59" s="2" t="s">
-        <v>354</v>
+        <v>346</v>
       </c>
       <c r="F59" t="s">
-        <v>474</v>
+        <v>451</v>
       </c>
       <c r="G59" s="3">
-        <v>43507.97703703704</v>
+        <v>43508.07774305555</v>
       </c>
       <c r="H59" t="s">
-        <v>529</v>
+        <v>516</v>
       </c>
     </row>
     <row r="60" spans="1:8">
       <c r="A60" s="1">
-        <v>146</v>
+        <v>99</v>
       </c>
       <c r="B60">
-        <v>147</v>
+        <v>100</v>
       </c>
       <c r="C60" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="D60" t="s">
-        <v>202</v>
+        <v>198</v>
       </c>
       <c r="E60" s="2" t="s">
-        <v>355</v>
+        <v>346</v>
       </c>
       <c r="F60" t="s">
-        <v>459</v>
+        <v>451</v>
       </c>
       <c r="G60" s="3">
-        <v>43507.98893518518</v>
+        <v>43508.07774305555</v>
       </c>
       <c r="H60" t="s">
-        <v>530</v>
+        <v>516</v>
       </c>
     </row>
     <row r="61" spans="1:8">
       <c r="A61" s="1">
-        <v>50</v>
+        <v>151</v>
       </c>
       <c r="B61">
-        <v>51</v>
+        <v>152</v>
       </c>
       <c r="C61" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="D61" t="s">
-        <v>203</v>
+        <v>199</v>
       </c>
       <c r="E61" s="2" t="s">
-        <v>356</v>
+        <v>347</v>
       </c>
       <c r="F61" t="s">
-        <v>459</v>
+        <v>460</v>
       </c>
       <c r="G61" s="3">
-        <v>43507.99054398148</v>
+        <v>43508.11739583333</v>
       </c>
       <c r="H61" t="s">
-        <v>531</v>
+        <v>517</v>
       </c>
     </row>
     <row r="62" spans="1:8">
       <c r="A62" s="1">
-        <v>23</v>
+        <v>100</v>
       </c>
       <c r="B62">
-        <v>24</v>
+        <v>101</v>
       </c>
       <c r="C62" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="D62" t="s">
-        <v>204</v>
+        <v>200</v>
       </c>
       <c r="E62" s="2" t="s">
-        <v>357</v>
+        <v>348</v>
       </c>
       <c r="F62" t="s">
-        <v>472</v>
+        <v>461</v>
       </c>
       <c r="G62" s="3">
-        <v>43507.99305555555</v>
+        <v>43508.12322916667</v>
       </c>
       <c r="H62" t="s">
-        <v>532</v>
+        <v>518</v>
       </c>
     </row>
     <row r="63" spans="1:8">
       <c r="A63" s="1">
-        <v>45</v>
+        <v>78</v>
       </c>
       <c r="B63">
-        <v>46</v>
+        <v>79</v>
       </c>
       <c r="C63" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="D63" t="s">
-        <v>205</v>
+        <v>201</v>
       </c>
       <c r="E63" s="2" t="s">
-        <v>358</v>
+        <v>349</v>
       </c>
       <c r="F63" t="s">
-        <v>471</v>
+        <v>449</v>
       </c>
       <c r="G63" s="3">
-        <v>43507.99777777777</v>
+        <v>43508.16184027777</v>
       </c>
       <c r="H63" t="s">
-        <v>533</v>
+        <v>519</v>
       </c>
     </row>
     <row r="64" spans="1:8">
       <c r="A64" s="1">
-        <v>105</v>
+        <v>128</v>
       </c>
       <c r="B64">
-        <v>106</v>
+        <v>129</v>
       </c>
       <c r="C64" t="s">
         <v>63</v>
       </c>
       <c r="D64" t="s">
-        <v>206</v>
+        <v>202</v>
       </c>
       <c r="E64" s="2" t="s">
-        <v>359</v>
+        <v>350</v>
       </c>
       <c r="F64" t="s">
-        <v>462</v>
+        <v>452</v>
       </c>
       <c r="G64" s="3">
-        <v>43507.99791666667</v>
+        <v>43508.16190972222</v>
       </c>
       <c r="H64" t="s">
-        <v>534</v>
+        <v>520</v>
       </c>
     </row>
     <row r="65" spans="1:8">
       <c r="A65" s="1">
-        <v>81</v>
+        <v>76</v>
       </c>
       <c r="B65">
-        <v>82</v>
+        <v>77</v>
       </c>
       <c r="C65" t="s">
         <v>64</v>
       </c>
       <c r="D65" t="s">
-        <v>207</v>
+        <v>203</v>
       </c>
       <c r="E65" s="2" t="s">
-        <v>360</v>
+        <v>351</v>
       </c>
       <c r="F65" t="s">
-        <v>464</v>
+        <v>462</v>
       </c>
       <c r="G65" s="3">
-        <v>43508</v>
+        <v>43508.16695601852</v>
       </c>
       <c r="H65" t="s">
-        <v>535</v>
+        <v>521</v>
       </c>
     </row>
     <row r="66" spans="1:8">
       <c r="A66" s="1">
-        <v>63</v>
+        <v>31</v>
       </c>
       <c r="B66">
-        <v>64</v>
+        <v>32</v>
       </c>
       <c r="C66" t="s">
         <v>65</v>
       </c>
       <c r="D66" t="s">
-        <v>208</v>
+        <v>204</v>
       </c>
       <c r="E66" s="2" t="s">
-        <v>361</v>
+        <v>352</v>
       </c>
       <c r="F66" t="s">
-        <v>464</v>
+        <v>462</v>
       </c>
       <c r="G66" s="3">
-        <v>43508.04162037037</v>
+        <v>43508.16700231482</v>
       </c>
       <c r="H66" t="s">
-        <v>536</v>
+        <v>522</v>
       </c>
     </row>
     <row r="67" spans="1:8">
       <c r="A67" s="1">
-        <v>58</v>
+        <v>155</v>
       </c>
       <c r="B67">
-        <v>59</v>
+        <v>156</v>
       </c>
       <c r="C67" t="s">
         <v>66</v>
       </c>
       <c r="D67" t="s">
-        <v>209</v>
+        <v>205</v>
       </c>
       <c r="E67" s="2" t="s">
-        <v>362</v>
+        <v>353</v>
       </c>
       <c r="F67" t="s">
-        <v>471</v>
+        <v>460</v>
       </c>
       <c r="G67" s="3">
-        <v>43508.04342592593</v>
+        <v>43508.17880787037</v>
       </c>
       <c r="H67" t="s">
-        <v>537</v>
+        <v>523</v>
       </c>
     </row>
     <row r="68" spans="1:8">
       <c r="A68" s="1">
-        <v>24</v>
+        <v>51</v>
       </c>
       <c r="B68">
-        <v>25</v>
+        <v>52</v>
       </c>
       <c r="C68" t="s">
         <v>67</v>
       </c>
       <c r="D68" t="s">
-        <v>210</v>
+        <v>206</v>
       </c>
       <c r="E68" s="2" t="s">
-        <v>363</v>
+        <v>354</v>
       </c>
       <c r="F68" t="s">
-        <v>473</v>
+        <v>454</v>
       </c>
       <c r="G68" s="3">
-        <v>43508.05474537037</v>
+        <v>43508.27440972222</v>
       </c>
       <c r="H68" t="s">
-        <v>538</v>
+        <v>524</v>
       </c>
     </row>
     <row r="69" spans="1:8">
       <c r="A69" s="1">
-        <v>4</v>
+        <v>11</v>
       </c>
       <c r="B69">
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="C69" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="D69" t="s">
-        <v>211</v>
+        <v>206</v>
       </c>
       <c r="E69" s="2" t="s">
-        <v>364</v>
+        <v>355</v>
       </c>
       <c r="F69" t="s">
-        <v>473</v>
+        <v>454</v>
       </c>
       <c r="G69" s="3">
-        <v>43508.06134259259</v>
+        <v>43508.27619212963</v>
       </c>
       <c r="H69" t="s">
-        <v>539</v>
+        <v>524</v>
       </c>
     </row>
     <row r="70" spans="1:8">
       <c r="A70" s="1">
-        <v>5</v>
+        <v>137</v>
       </c>
       <c r="B70">
-        <v>6</v>
+        <v>138</v>
       </c>
       <c r="C70" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="D70" t="s">
-        <v>212</v>
+        <v>206</v>
       </c>
       <c r="E70" s="2" t="s">
-        <v>365</v>
+        <v>356</v>
       </c>
       <c r="F70" t="s">
-        <v>473</v>
+        <v>454</v>
       </c>
       <c r="G70" s="3">
-        <v>43508.06170138889</v>
+        <v>43508.27619212963</v>
       </c>
       <c r="H70" t="s">
-        <v>540</v>
+        <v>524</v>
       </c>
     </row>
     <row r="71" spans="1:8">
       <c r="A71" s="1">
-        <v>101</v>
+        <v>12</v>
       </c>
       <c r="B71">
-        <v>102</v>
+        <v>13</v>
       </c>
       <c r="C71" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="D71" t="s">
-        <v>213</v>
+        <v>206</v>
       </c>
       <c r="E71" s="2" t="s">
-        <v>366</v>
+        <v>355</v>
       </c>
       <c r="F71" t="s">
-        <v>461</v>
+        <v>454</v>
       </c>
       <c r="G71" s="3">
-        <v>43508.07774305555</v>
+        <v>43508.27619212963</v>
       </c>
       <c r="H71" t="s">
-        <v>541</v>
+        <v>524</v>
       </c>
     </row>
     <row r="72" spans="1:8">
       <c r="A72" s="1">
-        <v>147</v>
+        <v>136</v>
       </c>
       <c r="B72">
-        <v>148</v>
+        <v>137</v>
       </c>
       <c r="C72" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="D72" t="s">
-        <v>213</v>
+        <v>206</v>
       </c>
       <c r="E72" s="2" t="s">
-        <v>366</v>
+        <v>357</v>
       </c>
       <c r="F72" t="s">
-        <v>461</v>
+        <v>454</v>
       </c>
       <c r="G72" s="3">
-        <v>43508.07774305555</v>
+        <v>43508.27619212963</v>
       </c>
       <c r="H72" t="s">
-        <v>541</v>
+        <v>524</v>
       </c>
     </row>
     <row r="73" spans="1:8">
       <c r="A73" s="1">
-        <v>156</v>
+        <v>36</v>
       </c>
       <c r="B73">
-        <v>157</v>
+        <v>37</v>
       </c>
       <c r="C73" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="D73" t="s">
-        <v>214</v>
+        <v>207</v>
       </c>
       <c r="E73" s="2" t="s">
-        <v>367</v>
+        <v>358</v>
       </c>
       <c r="F73" t="s">
-        <v>474</v>
+        <v>463</v>
       </c>
       <c r="G73" s="3">
-        <v>43508.11739583333</v>
+        <v>43508.28203703704</v>
       </c>
       <c r="H73" t="s">
-        <v>542</v>
+        <v>525</v>
       </c>
     </row>
     <row r="74" spans="1:8">
       <c r="A74" s="1">
-        <v>102</v>
+        <v>138</v>
       </c>
       <c r="B74">
-        <v>103</v>
+        <v>139</v>
       </c>
       <c r="C74" t="s">
-        <v>73</v>
+        <v>67</v>
       </c>
       <c r="D74" t="s">
-        <v>215</v>
+        <v>206</v>
       </c>
       <c r="E74" s="2" t="s">
-        <v>368</v>
+        <v>359</v>
       </c>
       <c r="F74" t="s">
-        <v>463</v>
+        <v>454</v>
       </c>
       <c r="G74" s="3">
-        <v>43508.12322916667</v>
+        <v>43508.28295138889</v>
       </c>
       <c r="H74" t="s">
-        <v>543</v>
+        <v>524</v>
       </c>
     </row>
     <row r="75" spans="1:8">
       <c r="A75" s="1">
-        <v>80</v>
+        <v>40</v>
       </c>
       <c r="B75">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="C75" t="s">
-        <v>74</v>
+        <v>69</v>
       </c>
       <c r="D75" t="s">
-        <v>216</v>
+        <v>208</v>
       </c>
       <c r="E75" s="2" t="s">
-        <v>369</v>
+        <v>360</v>
       </c>
       <c r="F75" t="s">
-        <v>459</v>
+        <v>447</v>
       </c>
       <c r="G75" s="3">
-        <v>43508.16184027777</v>
+        <v>43508.31341435185</v>
       </c>
       <c r="H75" t="s">
-        <v>544</v>
+        <v>526</v>
       </c>
     </row>
     <row r="76" spans="1:8">
       <c r="A76" s="1">
-        <v>134</v>
+        <v>16</v>
       </c>
       <c r="B76">
-        <v>135</v>
+        <v>17</v>
       </c>
       <c r="C76" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="D76" t="s">
-        <v>217</v>
+        <v>209</v>
       </c>
       <c r="E76" s="2" t="s">
-        <v>370</v>
+        <v>361</v>
       </c>
       <c r="F76" t="s">
-        <v>467</v>
+        <v>447</v>
       </c>
       <c r="G76" s="3">
-        <v>43508.16190972222</v>
+        <v>43508.32862268519</v>
       </c>
       <c r="H76" t="s">
-        <v>545</v>
+        <v>527</v>
       </c>
     </row>
     <row r="77" spans="1:8">
       <c r="A77" s="1">
-        <v>78</v>
+        <v>139</v>
       </c>
       <c r="B77">
-        <v>79</v>
+        <v>140</v>
       </c>
       <c r="C77" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="D77" t="s">
-        <v>218</v>
+        <v>210</v>
       </c>
       <c r="E77" s="2" t="s">
-        <v>371</v>
+        <v>362</v>
       </c>
       <c r="F77" t="s">
-        <v>475</v>
+        <v>447</v>
       </c>
       <c r="G77" s="3">
-        <v>43508.16695601852</v>
+        <v>43508.33680555555</v>
       </c>
       <c r="H77" t="s">
-        <v>546</v>
+        <v>528</v>
       </c>
     </row>
     <row r="78" spans="1:8">
       <c r="A78" s="1">
-        <v>31</v>
+        <v>127</v>
       </c>
       <c r="B78">
-        <v>32</v>
+        <v>128</v>
       </c>
       <c r="C78" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="D78" t="s">
-        <v>219</v>
+        <v>211</v>
       </c>
       <c r="E78" s="2" t="s">
-        <v>372</v>
+        <v>363</v>
       </c>
       <c r="F78" t="s">
-        <v>475</v>
+        <v>454</v>
       </c>
       <c r="G78" s="3">
-        <v>43508.16700231482</v>
+        <v>43508.34508101852</v>
       </c>
       <c r="H78" t="s">
-        <v>547</v>
+        <v>529</v>
       </c>
     </row>
     <row r="79" spans="1:8">
       <c r="A79" s="1">
-        <v>160</v>
+        <v>96</v>
       </c>
       <c r="B79">
-        <v>161</v>
+        <v>97</v>
       </c>
       <c r="C79" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="D79" t="s">
-        <v>220</v>
+        <v>212</v>
       </c>
       <c r="E79" s="2" t="s">
-        <v>373</v>
+        <v>364</v>
       </c>
       <c r="F79" t="s">
-        <v>474</v>
+        <v>461</v>
       </c>
       <c r="G79" s="3">
-        <v>43508.17880787037</v>
+        <v>43508.41666666666</v>
       </c>
       <c r="H79" t="s">
-        <v>548</v>
+        <v>530</v>
       </c>
     </row>
     <row r="80" spans="1:8">
       <c r="A80" s="1">
-        <v>52</v>
+        <v>125</v>
       </c>
       <c r="B80">
-        <v>53</v>
+        <v>126</v>
       </c>
       <c r="C80" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="D80" t="s">
-        <v>221</v>
+        <v>213</v>
       </c>
       <c r="E80" s="2" t="s">
-        <v>374</v>
+        <v>365</v>
       </c>
       <c r="F80" t="s">
-        <v>469</v>
+        <v>456</v>
       </c>
       <c r="G80" s="3">
-        <v>43508.27440972222</v>
+        <v>43508.41677083333</v>
       </c>
       <c r="H80" t="s">
-        <v>549</v>
+        <v>531</v>
       </c>
     </row>
     <row r="81" spans="1:8">
       <c r="A81" s="1">
-        <v>142</v>
+        <v>21</v>
       </c>
       <c r="B81">
-        <v>143</v>
+        <v>22</v>
       </c>
       <c r="C81" t="s">
-        <v>78</v>
-      </c>
-      <c r="D81" t="s">
-        <v>221</v>
+        <v>75</v>
       </c>
       <c r="E81" s="2" t="s">
-        <v>375</v>
+        <v>366</v>
       </c>
       <c r="F81" t="s">
-        <v>469</v>
+        <v>446</v>
       </c>
       <c r="G81" s="3">
-        <v>43508.27619212963</v>
-      </c>
-      <c r="H81" t="s">
-        <v>549</v>
+        <v>43508.416875</v>
       </c>
     </row>
     <row r="82" spans="1:8">
       <c r="A82" s="1">
-        <v>11</v>
+        <v>71</v>
       </c>
       <c r="B82">
-        <v>12</v>
+        <v>72</v>
       </c>
       <c r="C82" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="D82" t="s">
-        <v>221</v>
+        <v>214</v>
       </c>
       <c r="E82" s="2" t="s">
-        <v>376</v>
+        <v>367</v>
       </c>
       <c r="F82" t="s">
-        <v>469</v>
+        <v>458</v>
       </c>
       <c r="G82" s="3">
-        <v>43508.27619212963</v>
+        <v>43508.41699074074</v>
       </c>
       <c r="H82" t="s">
-        <v>549</v>
+        <v>532</v>
       </c>
     </row>
     <row r="83" spans="1:8">
       <c r="A83" s="1">
-        <v>12</v>
+        <v>43</v>
       </c>
       <c r="B83">
-        <v>13</v>
+        <v>44</v>
       </c>
       <c r="C83" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="D83" t="s">
-        <v>221</v>
+        <v>215</v>
       </c>
       <c r="E83" s="2" t="s">
-        <v>376</v>
+        <v>368</v>
       </c>
       <c r="F83" t="s">
-        <v>469</v>
+        <v>462</v>
       </c>
       <c r="G83" s="3">
-        <v>43508.27619212963</v>
+        <v>43508.43657407408</v>
       </c>
       <c r="H83" t="s">
-        <v>549</v>
+        <v>533</v>
       </c>
     </row>
     <row r="84" spans="1:8">
       <c r="A84" s="1">
-        <v>141</v>
+        <v>19</v>
       </c>
       <c r="B84">
-        <v>142</v>
+        <v>20</v>
       </c>
       <c r="C84" t="s">
         <v>78</v>
       </c>
       <c r="D84" t="s">
-        <v>221</v>
+        <v>216</v>
       </c>
       <c r="E84" s="2" t="s">
-        <v>377</v>
+        <v>369</v>
       </c>
       <c r="F84" t="s">
-        <v>469</v>
+        <v>451</v>
       </c>
       <c r="G84" s="3">
-        <v>43508.27619212963</v>
+        <v>43508.4375</v>
       </c>
       <c r="H84" t="s">
-        <v>549</v>
+        <v>534</v>
       </c>
     </row>
     <row r="85" spans="1:8">
       <c r="A85" s="1">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="B85">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="C85" t="s">
         <v>79</v>
       </c>
       <c r="D85" t="s">
-        <v>222</v>
+        <v>217</v>
       </c>
       <c r="E85" s="2" t="s">
-        <v>378</v>
+        <v>370</v>
       </c>
       <c r="F85" t="s">
-        <v>476</v>
+        <v>451</v>
       </c>
       <c r="G85" s="3">
-        <v>43508.28203703704</v>
+        <v>43508.43888888889</v>
       </c>
       <c r="H85" t="s">
-        <v>550</v>
+        <v>535</v>
       </c>
     </row>
     <row r="86" spans="1:8">
       <c r="A86" s="1">
-        <v>143</v>
+        <v>74</v>
       </c>
       <c r="B86">
-        <v>144</v>
+        <v>75</v>
       </c>
       <c r="C86" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="D86" t="s">
-        <v>221</v>
+        <v>218</v>
       </c>
       <c r="E86" s="2" t="s">
-        <v>379</v>
+        <v>371</v>
       </c>
       <c r="F86" t="s">
-        <v>469</v>
+        <v>454</v>
       </c>
       <c r="G86" s="3">
-        <v>43508.28295138889</v>
+        <v>43508.43917824074</v>
       </c>
       <c r="H86" t="s">
-        <v>549</v>
+        <v>536</v>
       </c>
     </row>
     <row r="87" spans="1:8">
       <c r="A87" s="1">
-        <v>39</v>
+        <v>67</v>
       </c>
       <c r="B87">
-        <v>40</v>
+        <v>68</v>
       </c>
       <c r="C87" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="D87" t="s">
-        <v>223</v>
+        <v>219</v>
       </c>
       <c r="E87" s="2" t="s">
-        <v>380</v>
+        <v>372</v>
       </c>
       <c r="F87" t="s">
-        <v>464</v>
+        <v>457</v>
       </c>
       <c r="G87" s="3">
-        <v>43508.31341435185</v>
+        <v>43508.44082175926</v>
       </c>
       <c r="H87" t="s">
-        <v>551</v>
+        <v>537</v>
       </c>
     </row>
     <row r="88" spans="1:8">
       <c r="A88" s="1">
-        <v>16</v>
+        <v>55</v>
       </c>
       <c r="B88">
-        <v>17</v>
+        <v>56</v>
       </c>
       <c r="C88" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="D88" t="s">
-        <v>224</v>
+        <v>220</v>
       </c>
       <c r="E88" s="2" t="s">
-        <v>381</v>
+        <v>373</v>
       </c>
       <c r="F88" t="s">
-        <v>464</v>
+        <v>449</v>
       </c>
       <c r="G88" s="3">
-        <v>43508.32862268519</v>
+        <v>43508.45837962963</v>
       </c>
       <c r="H88" t="s">
-        <v>552</v>
+        <v>538</v>
       </c>
     </row>
     <row r="89" spans="1:8">
       <c r="A89" s="1">
-        <v>144</v>
+        <v>66</v>
       </c>
       <c r="B89">
-        <v>145</v>
+        <v>67</v>
       </c>
       <c r="C89" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="D89" t="s">
-        <v>225</v>
+        <v>221</v>
       </c>
       <c r="E89" s="2" t="s">
-        <v>382</v>
+        <v>374</v>
       </c>
       <c r="F89" t="s">
-        <v>464</v>
+        <v>460</v>
       </c>
       <c r="G89" s="3">
-        <v>43508.33680555555</v>
+        <v>43508.45839120371</v>
       </c>
       <c r="H89" t="s">
-        <v>553</v>
+        <v>517</v>
       </c>
     </row>
     <row r="90" spans="1:8">
@@ -7463,1960 +7275,1836 @@
         <v>134</v>
       </c>
       <c r="C90" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="D90" t="s">
-        <v>226</v>
+        <v>222</v>
       </c>
       <c r="E90" s="2" t="s">
-        <v>383</v>
+        <v>375</v>
       </c>
       <c r="F90" t="s">
-        <v>469</v>
+        <v>449</v>
       </c>
       <c r="G90" s="3">
-        <v>43508.34508101852</v>
+        <v>43508.45908564814</v>
       </c>
       <c r="H90" t="s">
-        <v>554</v>
+        <v>539</v>
       </c>
     </row>
     <row r="91" spans="1:8">
       <c r="A91" s="1">
-        <v>98</v>
+        <v>115</v>
       </c>
       <c r="B91">
-        <v>99</v>
+        <v>116</v>
       </c>
       <c r="C91" t="s">
-        <v>84</v>
-      </c>
-      <c r="D91" t="s">
-        <v>227</v>
+        <v>85</v>
       </c>
       <c r="E91" s="2" t="s">
-        <v>384</v>
+        <v>376</v>
       </c>
       <c r="F91" t="s">
         <v>463</v>
       </c>
       <c r="G91" s="3">
-        <v>43508.41666666666</v>
+        <v>43508.45961805555</v>
       </c>
       <c r="H91" t="s">
-        <v>555</v>
+        <v>540</v>
       </c>
     </row>
     <row r="92" spans="1:8">
       <c r="A92" s="1">
-        <v>131</v>
+        <v>123</v>
       </c>
       <c r="B92">
-        <v>132</v>
+        <v>124</v>
       </c>
       <c r="C92" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="D92" t="s">
-        <v>228</v>
+        <v>223</v>
       </c>
       <c r="E92" s="2" t="s">
-        <v>385</v>
+        <v>377</v>
       </c>
       <c r="F92" t="s">
-        <v>470</v>
+        <v>454</v>
       </c>
       <c r="G92" s="3">
-        <v>43508.41677083333</v>
+        <v>43508.48251157408</v>
       </c>
       <c r="H92" t="s">
-        <v>556</v>
+        <v>541</v>
       </c>
     </row>
     <row r="93" spans="1:8">
       <c r="A93" s="1">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="B93">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="C93" t="s">
-        <v>86</v>
+        <v>87</v>
+      </c>
+      <c r="D93" t="s">
+        <v>224</v>
       </c>
       <c r="E93" s="2" t="s">
-        <v>386</v>
+        <v>378</v>
       </c>
       <c r="F93" t="s">
-        <v>465</v>
+        <v>447</v>
       </c>
       <c r="G93" s="3">
-        <v>43508.416875</v>
+        <v>43508.48925925926</v>
+      </c>
+      <c r="H93" t="s">
+        <v>542</v>
       </c>
     </row>
     <row r="94" spans="1:8">
       <c r="A94" s="1">
-        <v>73</v>
+        <v>59</v>
       </c>
       <c r="B94">
-        <v>74</v>
+        <v>60</v>
       </c>
       <c r="C94" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="D94" t="s">
-        <v>229</v>
+        <v>225</v>
       </c>
       <c r="E94" s="2" t="s">
-        <v>387</v>
+        <v>379</v>
       </c>
       <c r="F94" t="s">
-        <v>472</v>
+        <v>450</v>
       </c>
       <c r="G94" s="3">
-        <v>43508.41699074074</v>
+        <v>43508.49513888889</v>
       </c>
       <c r="H94" t="s">
-        <v>557</v>
+        <v>543</v>
       </c>
     </row>
     <row r="95" spans="1:8">
       <c r="A95" s="1">
-        <v>44</v>
+        <v>135</v>
       </c>
       <c r="B95">
-        <v>45</v>
+        <v>136</v>
       </c>
       <c r="C95" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="D95" t="s">
-        <v>230</v>
+        <v>226</v>
       </c>
       <c r="E95" s="2" t="s">
-        <v>388</v>
+        <v>380</v>
       </c>
       <c r="F95" t="s">
-        <v>475</v>
+        <v>450</v>
       </c>
       <c r="G95" s="3">
-        <v>43508.43657407408</v>
+        <v>43508.49722222222</v>
       </c>
       <c r="H95" t="s">
-        <v>558</v>
+        <v>544</v>
       </c>
     </row>
     <row r="96" spans="1:8">
       <c r="A96" s="1">
-        <v>20</v>
+        <v>72</v>
       </c>
       <c r="B96">
-        <v>21</v>
+        <v>73</v>
       </c>
       <c r="C96" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="D96" t="s">
-        <v>231</v>
+        <v>227</v>
       </c>
       <c r="E96" s="2" t="s">
-        <v>389</v>
+        <v>381</v>
       </c>
       <c r="F96" t="s">
-        <v>461</v>
+        <v>454</v>
       </c>
       <c r="G96" s="3">
-        <v>43508.4375</v>
+        <v>43508.49805555555</v>
       </c>
       <c r="H96" t="s">
-        <v>559</v>
+        <v>545</v>
       </c>
     </row>
     <row r="97" spans="1:8">
       <c r="A97" s="1">
-        <v>30</v>
+        <v>10</v>
       </c>
       <c r="B97">
-        <v>31</v>
+        <v>11</v>
       </c>
       <c r="C97" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="D97" t="s">
-        <v>232</v>
+        <v>228</v>
       </c>
       <c r="E97" s="2" t="s">
-        <v>390</v>
+        <v>382</v>
       </c>
       <c r="F97" t="s">
-        <v>461</v>
+        <v>449</v>
       </c>
       <c r="G97" s="3">
-        <v>43508.43888888889</v>
+        <v>43508.51170138889</v>
       </c>
       <c r="H97" t="s">
-        <v>560</v>
+        <v>546</v>
       </c>
     </row>
     <row r="98" spans="1:8">
       <c r="A98" s="1">
-        <v>76</v>
+        <v>91</v>
       </c>
       <c r="B98">
-        <v>77</v>
+        <v>92</v>
       </c>
       <c r="C98" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="D98" t="s">
-        <v>233</v>
+        <v>229</v>
       </c>
       <c r="E98" s="2" t="s">
-        <v>391</v>
+        <v>383</v>
       </c>
       <c r="F98" t="s">
-        <v>469</v>
+        <v>451</v>
       </c>
       <c r="G98" s="3">
-        <v>43508.43917824074</v>
+        <v>43508.52487268519</v>
       </c>
       <c r="H98" t="s">
-        <v>561</v>
+        <v>547</v>
       </c>
     </row>
     <row r="99" spans="1:8">
       <c r="A99" s="1">
-        <v>68</v>
+        <v>56</v>
       </c>
       <c r="B99">
-        <v>69</v>
+        <v>57</v>
       </c>
       <c r="C99" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="D99" t="s">
-        <v>234</v>
+        <v>230</v>
       </c>
       <c r="E99" s="2" t="s">
-        <v>392</v>
+        <v>384</v>
       </c>
       <c r="F99" t="s">
-        <v>471</v>
+        <v>457</v>
       </c>
       <c r="G99" s="3">
-        <v>43508.44082175926</v>
+        <v>43508.52770833333</v>
       </c>
       <c r="H99" t="s">
-        <v>562</v>
+        <v>548</v>
       </c>
     </row>
     <row r="100" spans="1:8">
       <c r="A100" s="1">
-        <v>56</v>
+        <v>39</v>
       </c>
       <c r="B100">
-        <v>57</v>
+        <v>40</v>
       </c>
       <c r="C100" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="D100" t="s">
-        <v>235</v>
+        <v>231</v>
       </c>
       <c r="E100" s="2" t="s">
-        <v>393</v>
+        <v>385</v>
       </c>
       <c r="F100" t="s">
-        <v>459</v>
+        <v>450</v>
       </c>
       <c r="G100" s="3">
-        <v>43508.45837962963</v>
+        <v>43508.52986111111</v>
       </c>
       <c r="H100" t="s">
-        <v>563</v>
+        <v>549</v>
       </c>
     </row>
     <row r="101" spans="1:8">
       <c r="A101" s="1">
-        <v>67</v>
+        <v>114</v>
       </c>
       <c r="B101">
-        <v>68</v>
+        <v>115</v>
       </c>
       <c r="C101" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="D101" t="s">
-        <v>236</v>
+        <v>232</v>
       </c>
       <c r="E101" s="2" t="s">
-        <v>394</v>
+        <v>386</v>
       </c>
       <c r="F101" t="s">
-        <v>474</v>
+        <v>451</v>
       </c>
       <c r="G101" s="3">
-        <v>43508.45839120371</v>
+        <v>43508.53061342592</v>
       </c>
       <c r="H101" t="s">
-        <v>542</v>
+        <v>550</v>
       </c>
     </row>
     <row r="102" spans="1:8">
       <c r="A102" s="1">
-        <v>138</v>
+        <v>121</v>
       </c>
       <c r="B102">
-        <v>139</v>
+        <v>122</v>
       </c>
       <c r="C102" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="D102" t="s">
-        <v>237</v>
+        <v>233</v>
       </c>
       <c r="E102" s="2" t="s">
-        <v>395</v>
+        <v>387</v>
       </c>
       <c r="F102" t="s">
-        <v>459</v>
+        <v>447</v>
       </c>
       <c r="G102" s="3">
-        <v>43508.45908564814</v>
+        <v>43508.53586805556</v>
       </c>
       <c r="H102" t="s">
-        <v>564</v>
+        <v>551</v>
       </c>
     </row>
     <row r="103" spans="1:8">
       <c r="A103" s="1">
-        <v>118</v>
+        <v>29</v>
       </c>
       <c r="B103">
-        <v>119</v>
+        <v>30</v>
       </c>
       <c r="C103" t="s">
         <v>96</v>
       </c>
+      <c r="D103" t="s">
+        <v>234</v>
+      </c>
       <c r="E103" s="2" t="s">
-        <v>396</v>
+        <v>388</v>
       </c>
       <c r="F103" t="s">
-        <v>476</v>
+        <v>447</v>
       </c>
       <c r="G103" s="3">
-        <v>43508.45961805555</v>
-      </c>
-      <c r="H103" t="s">
-        <v>565</v>
+        <v>43508.53586805556</v>
       </c>
     </row>
     <row r="104" spans="1:8">
       <c r="A104" s="1">
-        <v>127</v>
+        <v>97</v>
       </c>
       <c r="B104">
-        <v>128</v>
+        <v>98</v>
       </c>
       <c r="C104" t="s">
         <v>97</v>
       </c>
       <c r="D104" t="s">
-        <v>238</v>
+        <v>235</v>
       </c>
       <c r="E104" s="2" t="s">
-        <v>397</v>
+        <v>389</v>
       </c>
       <c r="F104" t="s">
-        <v>469</v>
+        <v>447</v>
       </c>
       <c r="G104" s="3">
-        <v>43508.48251157408</v>
+        <v>43508.54166666666</v>
       </c>
       <c r="H104" t="s">
-        <v>566</v>
+        <v>552</v>
       </c>
     </row>
     <row r="105" spans="1:8">
       <c r="A105" s="1">
-        <v>27</v>
+        <v>42</v>
       </c>
       <c r="B105">
-        <v>28</v>
+        <v>43</v>
       </c>
       <c r="C105" t="s">
         <v>98</v>
       </c>
       <c r="D105" t="s">
-        <v>239</v>
+        <v>236</v>
       </c>
       <c r="E105" s="2" t="s">
-        <v>398</v>
+        <v>390</v>
       </c>
       <c r="F105" t="s">
-        <v>464</v>
+        <v>450</v>
       </c>
       <c r="G105" s="3">
-        <v>43508.48925925926</v>
+        <v>43508.54236111111</v>
       </c>
       <c r="H105" t="s">
-        <v>567</v>
+        <v>553</v>
       </c>
     </row>
     <row r="106" spans="1:8">
       <c r="A106" s="1">
-        <v>60</v>
+        <v>38</v>
       </c>
       <c r="B106">
-        <v>61</v>
+        <v>39</v>
       </c>
       <c r="C106" t="s">
         <v>99</v>
       </c>
       <c r="D106" t="s">
-        <v>240</v>
+        <v>237</v>
       </c>
       <c r="E106" s="2" t="s">
-        <v>399</v>
+        <v>391</v>
       </c>
       <c r="F106" t="s">
-        <v>462</v>
+        <v>450</v>
       </c>
       <c r="G106" s="3">
-        <v>43508.49513888889</v>
+        <v>43508.54513888889</v>
       </c>
       <c r="H106" t="s">
-        <v>568</v>
+        <v>554</v>
       </c>
     </row>
     <row r="107" spans="1:8">
       <c r="A107" s="1">
-        <v>140</v>
+        <v>77</v>
       </c>
       <c r="B107">
-        <v>141</v>
+        <v>78</v>
       </c>
       <c r="C107" t="s">
         <v>100</v>
       </c>
       <c r="D107" t="s">
-        <v>241</v>
+        <v>238</v>
       </c>
       <c r="E107" s="2" t="s">
-        <v>400</v>
+        <v>392</v>
       </c>
       <c r="F107" t="s">
-        <v>462</v>
+        <v>450</v>
       </c>
       <c r="G107" s="3">
-        <v>43508.49722222222</v>
+        <v>43508.55972222222</v>
       </c>
       <c r="H107" t="s">
-        <v>569</v>
+        <v>555</v>
       </c>
     </row>
     <row r="108" spans="1:8">
       <c r="A108" s="1">
-        <v>74</v>
+        <v>111</v>
       </c>
       <c r="B108">
-        <v>75</v>
+        <v>112</v>
       </c>
       <c r="C108" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="D108" t="s">
-        <v>242</v>
+        <v>239</v>
       </c>
       <c r="E108" s="2" t="s">
-        <v>401</v>
+        <v>393</v>
       </c>
       <c r="F108" t="s">
-        <v>469</v>
+        <v>454</v>
       </c>
       <c r="G108" s="3">
-        <v>43508.49805555555</v>
+        <v>43508.56013888889</v>
       </c>
       <c r="H108" t="s">
-        <v>570</v>
+        <v>556</v>
       </c>
     </row>
     <row r="109" spans="1:8">
       <c r="A109" s="1">
-        <v>10</v>
+        <v>61</v>
       </c>
       <c r="B109">
-        <v>11</v>
+        <v>62</v>
       </c>
       <c r="C109" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="D109" t="s">
-        <v>243</v>
+        <v>240</v>
       </c>
       <c r="E109" s="2" t="s">
-        <v>402</v>
+        <v>394</v>
       </c>
       <c r="F109" t="s">
-        <v>459</v>
+        <v>449</v>
       </c>
       <c r="G109" s="3">
-        <v>43508.51170138889</v>
+        <v>43508.56443287037</v>
       </c>
       <c r="H109" t="s">
-        <v>571</v>
+        <v>557</v>
       </c>
     </row>
     <row r="110" spans="1:8">
       <c r="A110" s="1">
-        <v>92</v>
+        <v>9</v>
       </c>
       <c r="B110">
-        <v>93</v>
+        <v>10</v>
       </c>
       <c r="C110" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="D110" t="s">
-        <v>244</v>
+        <v>241</v>
       </c>
       <c r="E110" s="2" t="s">
-        <v>403</v>
+        <v>395</v>
       </c>
       <c r="F110" t="s">
-        <v>461</v>
+        <v>449</v>
       </c>
       <c r="G110" s="3">
-        <v>43508.52487268519</v>
+        <v>43508.56686342593</v>
       </c>
       <c r="H110" t="s">
-        <v>572</v>
+        <v>558</v>
       </c>
     </row>
     <row r="111" spans="1:8">
       <c r="A111" s="1">
-        <v>57</v>
+        <v>63</v>
       </c>
       <c r="B111">
-        <v>58</v>
+        <v>64</v>
       </c>
       <c r="C111" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="D111" t="s">
-        <v>245</v>
+        <v>242</v>
       </c>
       <c r="E111" s="2" t="s">
-        <v>404</v>
+        <v>396</v>
       </c>
       <c r="F111" t="s">
-        <v>471</v>
+        <v>450</v>
       </c>
       <c r="G111" s="3">
-        <v>43508.52770833333</v>
+        <v>43508.57291666666</v>
       </c>
       <c r="H111" t="s">
-        <v>573</v>
+        <v>559</v>
       </c>
     </row>
     <row r="112" spans="1:8">
       <c r="A112" s="1">
-        <v>38</v>
+        <v>145</v>
       </c>
       <c r="B112">
-        <v>39</v>
+        <v>146</v>
       </c>
       <c r="C112" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="D112" t="s">
-        <v>246</v>
+        <v>243</v>
       </c>
       <c r="E112" s="2" t="s">
-        <v>405</v>
+        <v>397</v>
       </c>
       <c r="F112" t="s">
-        <v>462</v>
+        <v>456</v>
       </c>
       <c r="G112" s="3">
-        <v>43508.52986111111</v>
+        <v>43508.57788194445</v>
       </c>
       <c r="H112" t="s">
-        <v>574</v>
+        <v>560</v>
       </c>
     </row>
     <row r="113" spans="1:8">
       <c r="A113" s="1">
-        <v>117</v>
+        <v>126</v>
       </c>
       <c r="B113">
-        <v>118</v>
+        <v>127</v>
       </c>
       <c r="C113" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="D113" t="s">
-        <v>247</v>
+        <v>244</v>
       </c>
       <c r="E113" s="2" t="s">
-        <v>406</v>
+        <v>398</v>
       </c>
       <c r="F113" t="s">
-        <v>461</v>
+        <v>456</v>
       </c>
       <c r="G113" s="3">
-        <v>43508.53061342592</v>
+        <v>43508.5830324074</v>
       </c>
       <c r="H113" t="s">
-        <v>575</v>
+        <v>561</v>
       </c>
     </row>
     <row r="114" spans="1:8">
       <c r="A114" s="1">
-        <v>124</v>
+        <v>134</v>
       </c>
       <c r="B114">
-        <v>125</v>
+        <v>135</v>
       </c>
       <c r="C114" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="D114" t="s">
-        <v>248</v>
+        <v>245</v>
       </c>
       <c r="E114" s="2" t="s">
-        <v>407</v>
+        <v>399</v>
       </c>
       <c r="F114" t="s">
-        <v>464</v>
+        <v>449</v>
       </c>
       <c r="G114" s="3">
-        <v>43508.53586805556</v>
+        <v>43508.58646990741</v>
       </c>
       <c r="H114" t="s">
-        <v>576</v>
+        <v>562</v>
       </c>
     </row>
     <row r="115" spans="1:8">
       <c r="A115" s="1">
-        <v>29</v>
+        <v>157</v>
       </c>
       <c r="B115">
-        <v>30</v>
+        <v>158</v>
       </c>
       <c r="C115" t="s">
         <v>107</v>
       </c>
       <c r="D115" t="s">
-        <v>249</v>
+        <v>246</v>
       </c>
       <c r="E115" s="2" t="s">
-        <v>408</v>
+        <v>400</v>
       </c>
       <c r="F115" t="s">
-        <v>464</v>
+        <v>460</v>
       </c>
       <c r="G115" s="3">
-        <v>43508.53586805556</v>
+        <v>43508.59274305555</v>
+      </c>
+      <c r="H115" t="s">
+        <v>563</v>
       </c>
     </row>
     <row r="116" spans="1:8">
       <c r="A116" s="1">
-        <v>99</v>
+        <v>46</v>
       </c>
       <c r="B116">
-        <v>100</v>
+        <v>47</v>
       </c>
       <c r="C116" t="s">
         <v>108</v>
       </c>
       <c r="D116" t="s">
-        <v>250</v>
+        <v>247</v>
       </c>
       <c r="E116" s="2" t="s">
-        <v>409</v>
+        <v>401</v>
       </c>
       <c r="F116" t="s">
-        <v>464</v>
+        <v>447</v>
       </c>
       <c r="G116" s="3">
-        <v>43508.54166666666</v>
+        <v>43508.59375</v>
       </c>
       <c r="H116" t="s">
-        <v>577</v>
+        <v>564</v>
       </c>
     </row>
     <row r="117" spans="1:8">
       <c r="A117" s="1">
-        <v>43</v>
+        <v>89</v>
       </c>
       <c r="B117">
-        <v>44</v>
+        <v>90</v>
       </c>
       <c r="C117" t="s">
         <v>109</v>
       </c>
       <c r="D117" t="s">
-        <v>251</v>
+        <v>248</v>
       </c>
       <c r="E117" s="2" t="s">
-        <v>410</v>
+        <v>402</v>
       </c>
       <c r="F117" t="s">
-        <v>462</v>
+        <v>450</v>
       </c>
       <c r="G117" s="3">
-        <v>43508.54236111111</v>
+        <v>43508.59930555556</v>
       </c>
       <c r="H117" t="s">
-        <v>578</v>
+        <v>565</v>
       </c>
     </row>
     <row r="118" spans="1:8">
       <c r="A118" s="1">
-        <v>37</v>
+        <v>120</v>
       </c>
       <c r="B118">
-        <v>38</v>
+        <v>121</v>
       </c>
       <c r="C118" t="s">
         <v>110</v>
       </c>
       <c r="D118" t="s">
-        <v>252</v>
+        <v>249</v>
       </c>
       <c r="E118" s="2" t="s">
-        <v>411</v>
+        <v>403</v>
       </c>
       <c r="F118" t="s">
-        <v>462</v>
+        <v>456</v>
       </c>
       <c r="G118" s="3">
-        <v>43508.54513888889</v>
+        <v>43508.60416666666</v>
       </c>
       <c r="H118" t="s">
-        <v>579</v>
+        <v>566</v>
       </c>
     </row>
     <row r="119" spans="1:8">
       <c r="A119" s="1">
-        <v>79</v>
+        <v>156</v>
       </c>
       <c r="B119">
-        <v>80</v>
+        <v>157</v>
       </c>
       <c r="C119" t="s">
         <v>111</v>
       </c>
       <c r="D119" t="s">
-        <v>253</v>
+        <v>250</v>
       </c>
       <c r="E119" s="2" t="s">
-        <v>412</v>
+        <v>404</v>
       </c>
       <c r="F119" t="s">
-        <v>462</v>
+        <v>458</v>
       </c>
       <c r="G119" s="3">
-        <v>43508.55972222222</v>
+        <v>43508.60902777778</v>
       </c>
       <c r="H119" t="s">
-        <v>580</v>
+        <v>567</v>
       </c>
     </row>
     <row r="120" spans="1:8">
       <c r="A120" s="1">
-        <v>114</v>
+        <v>131</v>
       </c>
       <c r="B120">
-        <v>115</v>
+        <v>132</v>
       </c>
       <c r="C120" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="D120" t="s">
-        <v>254</v>
+        <v>251</v>
       </c>
       <c r="E120" s="2" t="s">
-        <v>413</v>
+        <v>405</v>
       </c>
       <c r="F120" t="s">
-        <v>469</v>
+        <v>447</v>
       </c>
       <c r="G120" s="3">
-        <v>43508.56013888889</v>
+        <v>43508.61658564815</v>
       </c>
       <c r="H120" t="s">
-        <v>581</v>
+        <v>568</v>
       </c>
     </row>
     <row r="121" spans="1:8">
       <c r="A121" s="1">
-        <v>62</v>
+        <v>107</v>
       </c>
       <c r="B121">
-        <v>63</v>
+        <v>108</v>
       </c>
       <c r="C121" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="D121" t="s">
-        <v>255</v>
+        <v>252</v>
       </c>
       <c r="E121" s="2" t="s">
-        <v>414</v>
+        <v>406</v>
       </c>
       <c r="F121" t="s">
-        <v>459</v>
+        <v>450</v>
       </c>
       <c r="G121" s="3">
-        <v>43508.56443287037</v>
+        <v>43508.62430555555</v>
       </c>
       <c r="H121" t="s">
-        <v>582</v>
+        <v>569</v>
       </c>
     </row>
     <row r="122" spans="1:8">
       <c r="A122" s="1">
-        <v>9</v>
+        <v>37</v>
       </c>
       <c r="B122">
-        <v>10</v>
+        <v>38</v>
       </c>
       <c r="C122" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="D122" t="s">
-        <v>256</v>
+        <v>253</v>
       </c>
       <c r="E122" s="2" t="s">
-        <v>415</v>
+        <v>407</v>
       </c>
       <c r="F122" t="s">
-        <v>459</v>
+        <v>447</v>
       </c>
       <c r="G122" s="3">
-        <v>43508.56686342593</v>
+        <v>43508.62430555555</v>
       </c>
       <c r="H122" t="s">
-        <v>583</v>
+        <v>570</v>
       </c>
     </row>
     <row r="123" spans="1:8">
       <c r="A123" s="1">
-        <v>64</v>
+        <v>88</v>
       </c>
       <c r="B123">
-        <v>65</v>
+        <v>89</v>
       </c>
       <c r="C123" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="D123" t="s">
-        <v>257</v>
+        <v>254</v>
       </c>
       <c r="E123" s="2" t="s">
-        <v>416</v>
+        <v>408</v>
       </c>
       <c r="F123" t="s">
-        <v>462</v>
+        <v>450</v>
       </c>
       <c r="G123" s="3">
-        <v>43508.57291666666</v>
+        <v>43508.62708333333</v>
       </c>
       <c r="H123" t="s">
-        <v>584</v>
+        <v>571</v>
       </c>
     </row>
     <row r="124" spans="1:8">
       <c r="A124" s="1">
-        <v>151</v>
+        <v>52</v>
       </c>
       <c r="B124">
-        <v>152</v>
+        <v>53</v>
       </c>
       <c r="C124" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="D124" t="s">
-        <v>258</v>
+        <v>255</v>
       </c>
       <c r="E124" s="2" t="s">
-        <v>417</v>
+        <v>409</v>
       </c>
       <c r="F124" t="s">
-        <v>470</v>
+        <v>447</v>
       </c>
       <c r="G124" s="3">
-        <v>43508.57788194445</v>
+        <v>43508.6274537037</v>
       </c>
       <c r="H124" t="s">
-        <v>585</v>
+        <v>572</v>
       </c>
     </row>
     <row r="125" spans="1:8">
       <c r="A125" s="1">
-        <v>132</v>
+        <v>28</v>
       </c>
       <c r="B125">
-        <v>133</v>
+        <v>29</v>
       </c>
       <c r="C125" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="D125" t="s">
-        <v>259</v>
+        <v>256</v>
       </c>
       <c r="E125" s="2" t="s">
-        <v>418</v>
+        <v>410</v>
       </c>
       <c r="F125" t="s">
-        <v>470</v>
+        <v>449</v>
       </c>
       <c r="G125" s="3">
-        <v>43508.5830324074</v>
+        <v>43508.63381944445</v>
       </c>
       <c r="H125" t="s">
-        <v>586</v>
+        <v>573</v>
       </c>
     </row>
     <row r="126" spans="1:8">
       <c r="A126" s="1">
-        <v>139</v>
+        <v>7</v>
       </c>
       <c r="B126">
-        <v>140</v>
+        <v>8</v>
       </c>
       <c r="C126" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="D126" t="s">
-        <v>260</v>
+        <v>257</v>
       </c>
       <c r="E126" s="2" t="s">
-        <v>419</v>
+        <v>411</v>
       </c>
       <c r="F126" t="s">
-        <v>459</v>
+        <v>447</v>
       </c>
       <c r="G126" s="3">
-        <v>43508.58646990741</v>
+        <v>43508.65416666667</v>
       </c>
       <c r="H126" t="s">
-        <v>587</v>
+        <v>574</v>
       </c>
     </row>
     <row r="127" spans="1:8">
       <c r="A127" s="1">
-        <v>162</v>
+        <v>15</v>
       </c>
       <c r="B127">
-        <v>163</v>
+        <v>16</v>
       </c>
       <c r="C127" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="D127" t="s">
-        <v>261</v>
+        <v>258</v>
       </c>
       <c r="E127" s="2" t="s">
-        <v>420</v>
+        <v>412</v>
       </c>
       <c r="F127" t="s">
-        <v>474</v>
+        <v>460</v>
       </c>
       <c r="G127" s="3">
-        <v>43508.59274305555</v>
+        <v>43508.65466435185</v>
       </c>
       <c r="H127" t="s">
-        <v>588</v>
+        <v>575</v>
       </c>
     </row>
     <row r="128" spans="1:8">
       <c r="A128" s="1">
-        <v>47</v>
+        <v>0</v>
       </c>
       <c r="B128">
-        <v>48</v>
+        <v>1</v>
       </c>
       <c r="C128" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="D128" t="s">
-        <v>262</v>
+        <v>259</v>
       </c>
       <c r="E128" s="2" t="s">
-        <v>421</v>
+        <v>413</v>
       </c>
       <c r="F128" t="s">
-        <v>464</v>
+        <v>447</v>
       </c>
       <c r="G128" s="3">
-        <v>43508.59375</v>
+        <v>43508.65486111111</v>
       </c>
       <c r="H128" t="s">
-        <v>589</v>
+        <v>576</v>
       </c>
     </row>
     <row r="129" spans="1:8">
       <c r="A129" s="1">
-        <v>90</v>
+        <v>73</v>
       </c>
       <c r="B129">
-        <v>91</v>
+        <v>74</v>
       </c>
       <c r="C129" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="D129" t="s">
-        <v>263</v>
+        <v>260</v>
       </c>
       <c r="E129" s="2" t="s">
-        <v>422</v>
+        <v>414</v>
       </c>
       <c r="F129" t="s">
-        <v>462</v>
+        <v>447</v>
       </c>
       <c r="G129" s="3">
-        <v>43508.59930555556</v>
+        <v>43508.66319444445</v>
       </c>
       <c r="H129" t="s">
-        <v>590</v>
+        <v>577</v>
       </c>
     </row>
     <row r="130" spans="1:8">
       <c r="A130" s="1">
-        <v>123</v>
+        <v>119</v>
       </c>
       <c r="B130">
-        <v>124</v>
+        <v>120</v>
       </c>
       <c r="C130" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="D130" t="s">
-        <v>264</v>
+        <v>261</v>
       </c>
       <c r="E130" s="2" t="s">
-        <v>423</v>
+        <v>415</v>
       </c>
       <c r="F130" t="s">
-        <v>470</v>
+        <v>450</v>
       </c>
       <c r="G130" s="3">
-        <v>43508.60416666666</v>
+        <v>43508.67291666667</v>
       </c>
       <c r="H130" t="s">
-        <v>591</v>
+        <v>578</v>
       </c>
     </row>
     <row r="131" spans="1:8">
       <c r="A131" s="1">
-        <v>161</v>
+        <v>45</v>
       </c>
       <c r="B131">
-        <v>162</v>
+        <v>46</v>
       </c>
       <c r="C131" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="D131" t="s">
-        <v>265</v>
+        <v>262</v>
       </c>
       <c r="E131" s="2" t="s">
-        <v>424</v>
+        <v>416</v>
       </c>
       <c r="F131" t="s">
-        <v>472</v>
+        <v>462</v>
       </c>
       <c r="G131" s="3">
-        <v>43508.60902777778</v>
+        <v>43508.68063657408</v>
       </c>
       <c r="H131" t="s">
-        <v>592</v>
+        <v>579</v>
       </c>
     </row>
     <row r="132" spans="1:8">
       <c r="A132" s="1">
-        <v>137</v>
+        <v>53</v>
       </c>
       <c r="B132">
-        <v>138</v>
+        <v>54</v>
       </c>
       <c r="C132" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="D132" t="s">
-        <v>266</v>
+        <v>263</v>
       </c>
       <c r="E132" s="2" t="s">
-        <v>425</v>
+        <v>417</v>
       </c>
       <c r="F132" t="s">
-        <v>464</v>
+        <v>457</v>
       </c>
       <c r="G132" s="3">
-        <v>43508.61658564815</v>
+        <v>43508.68771990741</v>
       </c>
       <c r="H132" t="s">
-        <v>593</v>
+        <v>580</v>
       </c>
     </row>
     <row r="133" spans="1:8">
       <c r="A133" s="1">
-        <v>108</v>
+        <v>17</v>
       </c>
       <c r="B133">
-        <v>109</v>
+        <v>18</v>
       </c>
       <c r="C133" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="D133" t="s">
-        <v>267</v>
+        <v>264</v>
       </c>
       <c r="E133" s="2" t="s">
-        <v>426</v>
+        <v>418</v>
       </c>
       <c r="F133" t="s">
-        <v>462</v>
+        <v>447</v>
       </c>
       <c r="G133" s="3">
-        <v>43508.62430555555</v>
+        <v>43508.68797453704</v>
       </c>
       <c r="H133" t="s">
-        <v>594</v>
+        <v>581</v>
       </c>
     </row>
     <row r="134" spans="1:8">
       <c r="A134" s="1">
-        <v>36</v>
+        <v>70</v>
       </c>
       <c r="B134">
-        <v>37</v>
+        <v>71</v>
       </c>
       <c r="C134" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="D134" t="s">
-        <v>268</v>
+        <v>265</v>
       </c>
       <c r="E134" s="2" t="s">
-        <v>427</v>
+        <v>419</v>
       </c>
       <c r="F134" t="s">
-        <v>464</v>
+        <v>447</v>
       </c>
       <c r="G134" s="3">
-        <v>43508.62430555555</v>
+        <v>43508.69342592593</v>
       </c>
       <c r="H134" t="s">
-        <v>595</v>
+        <v>582</v>
       </c>
     </row>
     <row r="135" spans="1:8">
       <c r="A135" s="1">
-        <v>89</v>
+        <v>47</v>
       </c>
       <c r="B135">
-        <v>90</v>
+        <v>48</v>
       </c>
       <c r="C135" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="D135" t="s">
-        <v>269</v>
+        <v>266</v>
       </c>
       <c r="E135" s="2" t="s">
-        <v>428</v>
+        <v>420</v>
       </c>
       <c r="F135" t="s">
-        <v>462</v>
+        <v>454</v>
       </c>
       <c r="G135" s="3">
-        <v>43508.62708333333</v>
+        <v>43508.70134259259</v>
       </c>
       <c r="H135" t="s">
-        <v>596</v>
+        <v>583</v>
       </c>
     </row>
     <row r="136" spans="1:8">
       <c r="A136" s="1">
-        <v>53</v>
+        <v>60</v>
       </c>
       <c r="B136">
-        <v>54</v>
+        <v>61</v>
       </c>
       <c r="C136" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="D136" t="s">
-        <v>270</v>
+        <v>267</v>
       </c>
       <c r="E136" s="2" t="s">
-        <v>429</v>
+        <v>421</v>
       </c>
       <c r="F136" t="s">
-        <v>464</v>
+        <v>462</v>
       </c>
       <c r="G136" s="3">
-        <v>43508.6274537037</v>
+        <v>43508.70253472222</v>
       </c>
       <c r="H136" t="s">
-        <v>597</v>
+        <v>584</v>
       </c>
     </row>
     <row r="137" spans="1:8">
       <c r="A137" s="1">
-        <v>28</v>
+        <v>58</v>
       </c>
       <c r="B137">
-        <v>29</v>
+        <v>59</v>
       </c>
       <c r="C137" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="D137" t="s">
-        <v>271</v>
+        <v>268</v>
       </c>
       <c r="E137" s="2" t="s">
-        <v>430</v>
+        <v>422</v>
       </c>
       <c r="F137" t="s">
-        <v>459</v>
+        <v>462</v>
       </c>
       <c r="G137" s="3">
-        <v>43508.63381944445</v>
+        <v>43508.70738425926</v>
       </c>
       <c r="H137" t="s">
-        <v>598</v>
+        <v>585</v>
       </c>
     </row>
     <row r="138" spans="1:8">
       <c r="A138" s="1">
-        <v>7</v>
+        <v>130</v>
       </c>
       <c r="B138">
-        <v>8</v>
+        <v>131</v>
       </c>
       <c r="C138" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="D138" t="s">
-        <v>272</v>
+        <v>269</v>
       </c>
       <c r="E138" s="2" t="s">
-        <v>431</v>
+        <v>423</v>
       </c>
       <c r="F138" t="s">
-        <v>464</v>
+        <v>449</v>
       </c>
       <c r="G138" s="3">
-        <v>43508.65416666667</v>
+        <v>43508.70885416667</v>
       </c>
       <c r="H138" t="s">
-        <v>599</v>
+        <v>586</v>
       </c>
     </row>
     <row r="139" spans="1:8">
       <c r="A139" s="1">
+        <v>14</v>
+      </c>
+      <c r="B139">
         <v>15</v>
       </c>
-      <c r="B139">
-        <v>16</v>
-      </c>
       <c r="C139" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="D139" t="s">
-        <v>273</v>
+        <v>270</v>
       </c>
       <c r="E139" s="2" t="s">
-        <v>432</v>
+        <v>424</v>
       </c>
       <c r="F139" t="s">
-        <v>474</v>
+        <v>447</v>
       </c>
       <c r="G139" s="3">
-        <v>43508.65466435185</v>
+        <v>43508.71111111111</v>
       </c>
       <c r="H139" t="s">
-        <v>600</v>
+        <v>587</v>
       </c>
     </row>
     <row r="140" spans="1:8">
       <c r="A140" s="1">
-        <v>0</v>
+        <v>84</v>
       </c>
       <c r="B140">
-        <v>1</v>
+        <v>85</v>
       </c>
       <c r="C140" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="D140" t="s">
-        <v>274</v>
+        <v>271</v>
       </c>
       <c r="E140" s="2" t="s">
-        <v>433</v>
+        <v>425</v>
       </c>
       <c r="F140" t="s">
-        <v>464</v>
+        <v>450</v>
       </c>
       <c r="G140" s="3">
-        <v>43508.65486111111</v>
+        <v>43508.7125</v>
       </c>
       <c r="H140" t="s">
-        <v>601</v>
+        <v>588</v>
       </c>
     </row>
     <row r="141" spans="1:8">
       <c r="A141" s="1">
-        <v>75</v>
+        <v>93</v>
       </c>
       <c r="B141">
-        <v>76</v>
+        <v>94</v>
       </c>
       <c r="C141" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="D141" t="s">
-        <v>275</v>
+        <v>272</v>
       </c>
       <c r="E141" s="2" t="s">
-        <v>434</v>
+        <v>426</v>
       </c>
       <c r="F141" t="s">
-        <v>464</v>
+        <v>447</v>
       </c>
       <c r="G141" s="3">
-        <v>43508.66319444445</v>
+        <v>43508.7130787037</v>
       </c>
       <c r="H141" t="s">
-        <v>602</v>
+        <v>589</v>
       </c>
     </row>
     <row r="142" spans="1:8">
       <c r="A142" s="1">
-        <v>122</v>
+        <v>3</v>
       </c>
       <c r="B142">
-        <v>123</v>
+        <v>4</v>
       </c>
       <c r="C142" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="D142" t="s">
-        <v>276</v>
+        <v>273</v>
       </c>
       <c r="E142" s="2" t="s">
-        <v>435</v>
+        <v>427</v>
       </c>
       <c r="F142" t="s">
-        <v>462</v>
+        <v>447</v>
       </c>
       <c r="G142" s="3">
-        <v>43508.67291666667</v>
+        <v>43508.71319444444</v>
       </c>
       <c r="H142" t="s">
-        <v>603</v>
+        <v>590</v>
       </c>
     </row>
     <row r="143" spans="1:8">
       <c r="A143" s="1">
-        <v>46</v>
+        <v>101</v>
       </c>
       <c r="B143">
-        <v>47</v>
+        <v>102</v>
       </c>
       <c r="C143" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="D143" t="s">
-        <v>277</v>
+        <v>274</v>
       </c>
       <c r="E143" s="2" t="s">
-        <v>436</v>
+        <v>428</v>
       </c>
       <c r="F143" t="s">
-        <v>475</v>
+        <v>449</v>
       </c>
       <c r="G143" s="3">
-        <v>43508.68063657408</v>
+        <v>43508.71462962963</v>
       </c>
       <c r="H143" t="s">
-        <v>604</v>
+        <v>591</v>
       </c>
     </row>
     <row r="144" spans="1:8">
       <c r="A144" s="1">
-        <v>54</v>
+        <v>33</v>
       </c>
       <c r="B144">
-        <v>55</v>
+        <v>34</v>
       </c>
       <c r="C144" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="D144" t="s">
-        <v>278</v>
+        <v>275</v>
       </c>
       <c r="E144" s="2" t="s">
-        <v>437</v>
+        <v>429</v>
       </c>
       <c r="F144" t="s">
-        <v>471</v>
+        <v>447</v>
       </c>
       <c r="G144" s="3">
-        <v>43508.68771990741</v>
+        <v>43508.71783564815</v>
       </c>
       <c r="H144" t="s">
-        <v>605</v>
+        <v>592</v>
       </c>
     </row>
     <row r="145" spans="1:8">
       <c r="A145" s="1">
-        <v>18</v>
+        <v>1</v>
       </c>
       <c r="B145">
-        <v>19</v>
+        <v>2</v>
       </c>
       <c r="C145" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="D145" t="s">
-        <v>279</v>
+        <v>276</v>
       </c>
       <c r="E145" s="2" t="s">
-        <v>438</v>
+        <v>430</v>
       </c>
       <c r="F145" t="s">
-        <v>464</v>
+        <v>459</v>
       </c>
       <c r="G145" s="3">
-        <v>43508.68797453704</v>
+        <v>43508.71925925926</v>
       </c>
       <c r="H145" t="s">
-        <v>606</v>
+        <v>593</v>
       </c>
     </row>
     <row r="146" spans="1:8">
       <c r="A146" s="1">
-        <v>72</v>
+        <v>2</v>
       </c>
       <c r="B146">
-        <v>73</v>
+        <v>3</v>
       </c>
       <c r="C146" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="D146" t="s">
-        <v>280</v>
+        <v>277</v>
       </c>
       <c r="E146" s="2" t="s">
-        <v>439</v>
+        <v>431</v>
       </c>
       <c r="F146" t="s">
-        <v>464</v>
+        <v>447</v>
       </c>
       <c r="G146" s="3">
-        <v>43508.69342592593</v>
+        <v>43508.72430555556</v>
       </c>
       <c r="H146" t="s">
-        <v>607</v>
+        <v>594</v>
       </c>
     </row>
     <row r="147" spans="1:8">
       <c r="A147" s="1">
-        <v>48</v>
+        <v>108</v>
       </c>
       <c r="B147">
-        <v>49</v>
+        <v>109</v>
       </c>
       <c r="C147" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="D147" t="s">
-        <v>281</v>
+        <v>278</v>
       </c>
       <c r="E147" s="2" t="s">
-        <v>440</v>
+        <v>432</v>
       </c>
       <c r="F147" t="s">
-        <v>469</v>
+        <v>458</v>
       </c>
       <c r="G147" s="3">
-        <v>43508.70134259259</v>
+        <v>43508.72434027777</v>
       </c>
       <c r="H147" t="s">
-        <v>608</v>
+        <v>595</v>
       </c>
     </row>
     <row r="148" spans="1:8">
       <c r="A148" s="1">
-        <v>61</v>
+        <v>124</v>
       </c>
       <c r="B148">
-        <v>62</v>
+        <v>125</v>
       </c>
       <c r="C148" t="s">
-        <v>139</v>
+        <v>127</v>
       </c>
       <c r="D148" t="s">
-        <v>282</v>
+        <v>266</v>
       </c>
       <c r="E148" s="2" t="s">
-        <v>441</v>
+        <v>433</v>
       </c>
       <c r="F148" t="s">
-        <v>475</v>
+        <v>454</v>
       </c>
       <c r="G148" s="3">
-        <v>43508.70253472222</v>
+        <v>43508.72454861111</v>
       </c>
       <c r="H148" t="s">
-        <v>609</v>
+        <v>596</v>
       </c>
     </row>
     <row r="149" spans="1:8">
       <c r="A149" s="1">
-        <v>59</v>
+        <v>150</v>
       </c>
       <c r="B149">
-        <v>60</v>
+        <v>151</v>
       </c>
       <c r="C149" t="s">
         <v>140</v>
       </c>
       <c r="D149" t="s">
-        <v>283</v>
+        <v>279</v>
       </c>
       <c r="E149" s="2" t="s">
-        <v>442</v>
+        <v>434</v>
       </c>
       <c r="F149" t="s">
-        <v>475</v>
+        <v>460</v>
       </c>
       <c r="G149" s="3">
-        <v>43508.70738425926</v>
+        <v>43508.73185185185</v>
       </c>
       <c r="H149" t="s">
-        <v>610</v>
+        <v>597</v>
       </c>
     </row>
     <row r="150" spans="1:8">
       <c r="A150" s="1">
-        <v>136</v>
+        <v>65</v>
       </c>
       <c r="B150">
-        <v>137</v>
+        <v>66</v>
       </c>
       <c r="C150" t="s">
         <v>141</v>
       </c>
       <c r="D150" t="s">
-        <v>284</v>
+        <v>280</v>
       </c>
       <c r="E150" s="2" t="s">
-        <v>443</v>
+        <v>435</v>
       </c>
       <c r="F150" t="s">
-        <v>459</v>
+        <v>447</v>
       </c>
       <c r="G150" s="3">
-        <v>43508.70885416667</v>
+        <v>43508.73751157407</v>
       </c>
       <c r="H150" t="s">
-        <v>611</v>
+        <v>598</v>
       </c>
     </row>
     <row r="151" spans="1:8">
       <c r="A151" s="1">
-        <v>14</v>
+        <v>75</v>
       </c>
       <c r="B151">
-        <v>15</v>
+        <v>76</v>
       </c>
       <c r="C151" t="s">
         <v>142</v>
       </c>
       <c r="D151" t="s">
-        <v>285</v>
+        <v>281</v>
       </c>
       <c r="E151" s="2" t="s">
-        <v>444</v>
+        <v>436</v>
       </c>
       <c r="F151" t="s">
-        <v>464</v>
+        <v>454</v>
       </c>
       <c r="G151" s="3">
-        <v>43508.71111111111</v>
+        <v>43508.73864583333</v>
       </c>
       <c r="H151" t="s">
-        <v>612</v>
+        <v>599</v>
       </c>
     </row>
     <row r="152" spans="1:8">
       <c r="A152" s="1">
-        <v>84</v>
+        <v>144</v>
       </c>
       <c r="B152">
-        <v>85</v>
+        <v>145</v>
       </c>
       <c r="C152" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="D152" t="s">
-        <v>286</v>
+        <v>281</v>
       </c>
       <c r="E152" s="2" t="s">
-        <v>445</v>
+        <v>437</v>
       </c>
       <c r="F152" t="s">
-        <v>462</v>
+        <v>454</v>
       </c>
       <c r="G152" s="3">
-        <v>43508.7125</v>
+        <v>43508.74486111111</v>
       </c>
       <c r="H152" t="s">
-        <v>613</v>
+        <v>600</v>
       </c>
     </row>
     <row r="153" spans="1:8">
       <c r="A153" s="1">
-        <v>94</v>
+        <v>54</v>
       </c>
       <c r="B153">
-        <v>95</v>
+        <v>55</v>
       </c>
       <c r="C153" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="D153" t="s">
-        <v>287</v>
+        <v>282</v>
       </c>
       <c r="E153" s="2" t="s">
-        <v>446</v>
+        <v>438</v>
       </c>
       <c r="F153" t="s">
-        <v>464</v>
+        <v>457</v>
       </c>
       <c r="G153" s="3">
-        <v>43508.7130787037</v>
+        <v>43508.74918981481</v>
       </c>
       <c r="H153" t="s">
-        <v>614</v>
+        <v>601</v>
       </c>
     </row>
     <row r="154" spans="1:8">
       <c r="A154" s="1">
-        <v>3</v>
+        <v>26</v>
       </c>
       <c r="B154">
-        <v>4</v>
+        <v>27</v>
       </c>
       <c r="C154" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="D154" t="s">
-        <v>288</v>
+        <v>283</v>
       </c>
       <c r="E154" s="2" t="s">
-        <v>447</v>
+        <v>439</v>
       </c>
       <c r="F154" t="s">
-        <v>464</v>
+        <v>446</v>
       </c>
       <c r="G154" s="3">
-        <v>43508.71319444444</v>
+        <v>43508.75613425926</v>
       </c>
       <c r="H154" t="s">
-        <v>615</v>
+        <v>602</v>
       </c>
     </row>
     <row r="155" spans="1:8">
       <c r="A155" s="1">
-        <v>103</v>
+        <v>149</v>
       </c>
       <c r="B155">
-        <v>104</v>
+        <v>150</v>
       </c>
       <c r="C155" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="D155" t="s">
-        <v>289</v>
+        <v>284</v>
       </c>
       <c r="E155" s="2" t="s">
-        <v>448</v>
+        <v>440</v>
       </c>
       <c r="F155" t="s">
-        <v>459</v>
+        <v>452</v>
       </c>
       <c r="G155" s="3">
-        <v>43508.71462962963</v>
+        <v>43508.75642361111</v>
       </c>
       <c r="H155" t="s">
-        <v>616</v>
+        <v>603</v>
       </c>
     </row>
     <row r="156" spans="1:8">
       <c r="A156" s="1">
-        <v>32</v>
+        <v>106</v>
       </c>
       <c r="B156">
-        <v>33</v>
+        <v>107</v>
       </c>
       <c r="C156" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="D156" t="s">
-        <v>290</v>
+        <v>285</v>
       </c>
       <c r="E156" s="2" t="s">
-        <v>449</v>
+        <v>441</v>
       </c>
       <c r="F156" t="s">
-        <v>464</v>
+        <v>452</v>
       </c>
       <c r="G156" s="3">
-        <v>43508.71783564815</v>
+        <v>43508.7691087963</v>
       </c>
       <c r="H156" t="s">
-        <v>617</v>
+        <v>604</v>
       </c>
     </row>
     <row r="157" spans="1:8">
       <c r="A157" s="1">
-        <v>1</v>
+        <v>83</v>
       </c>
       <c r="B157">
-        <v>2</v>
+        <v>84</v>
       </c>
       <c r="C157" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="D157" t="s">
-        <v>291</v>
+        <v>286</v>
       </c>
       <c r="E157" s="2" t="s">
-        <v>450</v>
+        <v>442</v>
       </c>
       <c r="F157" t="s">
-        <v>473</v>
+        <v>447</v>
       </c>
       <c r="G157" s="3">
-        <v>43508.71925925926</v>
+        <v>43508.77494212963</v>
       </c>
       <c r="H157" t="s">
-        <v>618</v>
+        <v>605</v>
       </c>
     </row>
     <row r="158" spans="1:8">
       <c r="A158" s="1">
-        <v>2</v>
+        <v>132</v>
       </c>
       <c r="B158">
-        <v>3</v>
+        <v>133</v>
       </c>
       <c r="C158" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="D158" t="s">
-        <v>292</v>
+        <v>287</v>
       </c>
       <c r="E158" s="2" t="s">
-        <v>451</v>
+        <v>443</v>
       </c>
       <c r="F158" t="s">
-        <v>464</v>
+        <v>450</v>
       </c>
       <c r="G158" s="3">
-        <v>43508.72430555556</v>
+        <v>43508.77777777778</v>
       </c>
       <c r="H158" t="s">
-        <v>619</v>
+        <v>606</v>
       </c>
     </row>
     <row r="159" spans="1:8">
       <c r="A159" s="1">
-        <v>111</v>
+        <v>32</v>
       </c>
       <c r="B159">
-        <v>112</v>
+        <v>33</v>
       </c>
       <c r="C159" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="D159" t="s">
-        <v>293</v>
+        <v>288</v>
       </c>
       <c r="E159" s="2" t="s">
-        <v>452</v>
+        <v>444</v>
       </c>
       <c r="F159" t="s">
-        <v>472</v>
+        <v>447</v>
       </c>
       <c r="G159" s="3">
-        <v>43508.72434027777</v>
+        <v>43508.78001157408</v>
       </c>
       <c r="H159" t="s">
-        <v>620</v>
+        <v>607</v>
       </c>
     </row>
     <row r="160" spans="1:8">
       <c r="A160" s="1">
-        <v>128</v>
+        <v>81</v>
       </c>
       <c r="B160">
-        <v>129</v>
+        <v>82</v>
       </c>
       <c r="C160" t="s">
-        <v>138</v>
+        <v>150</v>
       </c>
       <c r="D160" t="s">
-        <v>281</v>
+        <v>289</v>
       </c>
       <c r="E160" s="2" t="s">
-        <v>453</v>
+        <v>445</v>
       </c>
       <c r="F160" t="s">
-        <v>469</v>
+        <v>447</v>
       </c>
       <c r="G160" s="3">
-        <v>43508.72454861111</v>
+        <v>43508.78457175926</v>
       </c>
       <c r="H160" t="s">
-        <v>621</v>
-      </c>
-    </row>
-    <row r="161" spans="1:8">
-      <c r="A161" s="1">
-        <v>155</v>
-      </c>
-      <c r="B161">
-        <v>156</v>
-      </c>
-      <c r="C161" t="s">
-        <v>151</v>
-      </c>
-      <c r="D161" t="s">
-        <v>294</v>
-      </c>
-      <c r="E161" s="2" t="s">
-        <v>454</v>
-      </c>
-      <c r="F161" t="s">
-        <v>474</v>
-      </c>
-      <c r="G161" s="3">
-        <v>43508.73185185185</v>
-      </c>
-      <c r="H161" t="s">
-        <v>622</v>
-      </c>
-    </row>
-    <row r="162" spans="1:8">
-      <c r="A162" s="1">
-        <v>66</v>
-      </c>
-      <c r="B162">
-        <v>67</v>
-      </c>
-      <c r="C162" t="s">
-        <v>152</v>
-      </c>
-      <c r="D162" t="s">
-        <v>295</v>
-      </c>
-      <c r="E162" s="2" t="s">
-        <v>455</v>
-      </c>
-      <c r="F162" t="s">
-        <v>464</v>
-      </c>
-      <c r="G162" s="3">
-        <v>43508.73751157407</v>
-      </c>
-      <c r="H162" t="s">
-        <v>623</v>
-      </c>
-    </row>
-    <row r="163" spans="1:8">
-      <c r="A163" s="1">
-        <v>77</v>
-      </c>
-      <c r="B163">
-        <v>78</v>
-      </c>
-      <c r="C163" t="s">
-        <v>153</v>
-      </c>
-      <c r="D163" t="s">
-        <v>296</v>
-      </c>
-      <c r="E163" s="2" t="s">
-        <v>456</v>
-      </c>
-      <c r="F163" t="s">
-        <v>469</v>
-      </c>
-      <c r="G163" s="3">
-        <v>43508.73864583333</v>
-      </c>
-      <c r="H163" t="s">
-        <v>624</v>
-      </c>
-    </row>
-    <row r="164" spans="1:8">
-      <c r="A164" s="1">
-        <v>150</v>
-      </c>
-      <c r="B164">
-        <v>151</v>
-      </c>
-      <c r="C164" t="s">
-        <v>153</v>
-      </c>
-      <c r="D164" t="s">
-        <v>296</v>
-      </c>
-      <c r="E164" s="2" t="s">
-        <v>457</v>
-      </c>
-      <c r="F164" t="s">
-        <v>469</v>
-      </c>
-      <c r="G164" s="3">
-        <v>43508.74486111111</v>
-      </c>
-      <c r="H164" t="s">
-        <v>625</v>
-      </c>
-    </row>
-    <row r="165" spans="1:8">
-      <c r="A165" s="1">
-        <v>55</v>
-      </c>
-      <c r="B165">
-        <v>56</v>
-      </c>
-      <c r="C165" t="s">
-        <v>154</v>
-      </c>
-      <c r="D165" t="s">
-        <v>297</v>
-      </c>
-      <c r="E165" s="2" t="s">
-        <v>458</v>
-      </c>
-      <c r="F165" t="s">
-        <v>471</v>
-      </c>
-      <c r="G165" s="3">
-        <v>43508.74918981481</v>
-      </c>
-      <c r="H165" t="s">
-        <v>626</v>
+        <v>608</v>
       </c>
     </row>
   </sheetData>
@@ -9580,11 +9268,6 @@
     <hyperlink ref="E158" r:id="rId157"/>
     <hyperlink ref="E159" r:id="rId158"/>
     <hyperlink ref="E160" r:id="rId159"/>
-    <hyperlink ref="E161" r:id="rId160"/>
-    <hyperlink ref="E162" r:id="rId161"/>
-    <hyperlink ref="E163" r:id="rId162"/>
-    <hyperlink ref="E164" r:id="rId163"/>
-    <hyperlink ref="E165" r:id="rId164"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
